--- a/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.782545841402623</v>
+        <v>1.782545841402765</v>
       </c>
       <c r="C2">
-        <v>0.6614039447260041</v>
+        <v>0.6614039447259472</v>
       </c>
       <c r="D2">
-        <v>0.200421752388948</v>
+        <v>0.2004217523885501</v>
       </c>
       <c r="E2">
-        <v>0.05465068096723513</v>
+        <v>0.05465068096719961</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.56260843968942</v>
+        <v>0.5626084396894058</v>
       </c>
       <c r="K2">
-        <v>0.1756772907602766</v>
+        <v>0.1756772907602873</v>
       </c>
       <c r="L2">
         <v>0.5725448159246866</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.532467365510882</v>
+        <v>1.532467365510939</v>
       </c>
       <c r="C3">
-        <v>0.5675921559605683</v>
+        <v>0.5675921559607957</v>
       </c>
       <c r="D3">
-        <v>0.1726521291241738</v>
+        <v>0.1726521291241454</v>
       </c>
       <c r="E3">
-        <v>0.04922865314532032</v>
+        <v>0.04922865314533098</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.413940633735507</v>
+        <v>2.413940633735493</v>
       </c>
       <c r="H3">
         <v>1.824101563080745</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4833909389109934</v>
+        <v>0.4833909389109863</v>
       </c>
       <c r="K3">
-        <v>0.1527168733474298</v>
+        <v>0.152716873347412</v>
       </c>
       <c r="L3">
-        <v>0.4936380934985465</v>
+        <v>0.4936380934985536</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.381760198796854</v>
+        <v>1.381760198796798</v>
       </c>
       <c r="C4">
-        <v>0.5111430129321377</v>
+        <v>0.5111430129321093</v>
       </c>
       <c r="D4">
-        <v>0.1559463091068665</v>
+        <v>0.155946309106767</v>
       </c>
       <c r="E4">
-        <v>0.04599245799553842</v>
+        <v>0.04599245799556684</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>2.245018402621071</v>
       </c>
       <c r="H4">
-        <v>1.709616649122694</v>
+        <v>1.709616649122736</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4356724223698976</v>
+        <v>0.4356724223699047</v>
       </c>
       <c r="K4">
-        <v>0.1389481452222014</v>
+        <v>0.1389481452222654</v>
       </c>
       <c r="L4">
-        <v>0.4461909854937716</v>
+        <v>0.4461909854937645</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>1.32095546979275</v>
       </c>
       <c r="C5">
-        <v>0.4883844925005576</v>
+        <v>0.4883844925002734</v>
       </c>
       <c r="D5">
-        <v>0.1492129497371906</v>
+        <v>0.1492129497374322</v>
       </c>
       <c r="E5">
-        <v>0.04469445552443929</v>
+        <v>0.04469445552440732</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.17724135435698</v>
+        <v>2.177241354356994</v>
       </c>
       <c r="H5">
-        <v>1.663712743348981</v>
+        <v>1.663712743348995</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4164238275176473</v>
+        <v>0.4164238275176686</v>
       </c>
       <c r="K5">
-        <v>0.1334092709584986</v>
+        <v>0.1334092709584951</v>
       </c>
       <c r="L5">
-        <v>0.4270731420325689</v>
+        <v>0.4270731420325546</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.310892832237357</v>
+        <v>1.310892832237329</v>
       </c>
       <c r="C6">
-        <v>0.4846190292799122</v>
+        <v>0.4846190292796848</v>
       </c>
       <c r="D6">
-        <v>0.1480990354052949</v>
+        <v>0.1480990354051812</v>
       </c>
       <c r="E6">
-        <v>0.04448010615905851</v>
+        <v>0.04448010615912246</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.166047051594546</v>
+        <v>2.166047051594532</v>
       </c>
       <c r="H6">
         <v>1.656132941551988</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4132385676971779</v>
+        <v>0.413238567697185</v>
       </c>
       <c r="K6">
-        <v>0.1324935977775787</v>
+        <v>0.1324935977775858</v>
       </c>
       <c r="L6">
-        <v>0.4239108060482266</v>
+        <v>0.4239108060482408</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.380937827961901</v>
+        <v>1.380937827961645</v>
       </c>
       <c r="C7">
-        <v>0.5108351475776658</v>
+        <v>0.5108351475774384</v>
       </c>
       <c r="D7">
-        <v>0.1558552148851504</v>
+        <v>0.1558552148850083</v>
       </c>
       <c r="E7">
-        <v>0.04597487184033966</v>
+        <v>0.0459748718403965</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>2.24410022794757</v>
       </c>
       <c r="H7">
-        <v>1.708994664111415</v>
+        <v>1.70899466411143</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4354120744079992</v>
+        <v>0.4354120744080276</v>
       </c>
       <c r="K7">
-        <v>0.1388731680147153</v>
+        <v>0.1388731680147259</v>
       </c>
       <c r="L7">
-        <v>0.4459323194931173</v>
+        <v>0.4459323194931244</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>1.695662417787133</v>
       </c>
       <c r="C8">
-        <v>0.6287903144499296</v>
+        <v>0.6287903144496738</v>
       </c>
       <c r="D8">
-        <v>0.190767425550689</v>
+        <v>0.1907674255506606</v>
       </c>
       <c r="E8">
-        <v>0.05276023292977072</v>
+        <v>0.05276023292976362</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>2.598225858030091</v>
       </c>
       <c r="H8">
-        <v>1.949110366068084</v>
+        <v>1.949110366068069</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5350811021066946</v>
+        <v>0.5350811021067017</v>
       </c>
       <c r="K8">
-        <v>0.1676854432144452</v>
+        <v>0.1676854432144381</v>
       </c>
       <c r="L8">
-        <v>0.5451078574562871</v>
+        <v>0.5451078574562942</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,28 +681,28 @@
         <v>2.34073871019865</v>
       </c>
       <c r="C9">
-        <v>0.8715176351965397</v>
+        <v>0.8715176351970797</v>
       </c>
       <c r="D9">
-        <v>0.26259172999562</v>
+        <v>0.2625917299958189</v>
       </c>
       <c r="E9">
-        <v>0.06693510619967924</v>
+        <v>0.0669351061996295</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.338089549574519</v>
+        <v>3.338089549574448</v>
       </c>
       <c r="H9">
-        <v>2.451897248447651</v>
+        <v>2.451897248447622</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7396066763258773</v>
+        <v>0.7396066763258489</v>
       </c>
       <c r="K9">
         <v>0.2273429877630377</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.840253356239032</v>
+        <v>2.840253356239145</v>
       </c>
       <c r="C10">
-        <v>1.060469359229273</v>
+        <v>1.060469359229359</v>
       </c>
       <c r="D10">
-        <v>0.3184074160031685</v>
+        <v>0.3184074160030264</v>
       </c>
       <c r="E10">
-        <v>0.07808689314651929</v>
+        <v>0.07808689314648731</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.921110784772338</v>
+        <v>3.92111078477231</v>
       </c>
       <c r="H10">
-        <v>2.848855230421336</v>
+        <v>2.848855230421293</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8982306646509812</v>
+        <v>0.898230664650967</v>
       </c>
       <c r="K10">
-        <v>0.2739677879559324</v>
+        <v>0.273967787955911</v>
       </c>
       <c r="L10">
-        <v>0.9080755116979375</v>
+        <v>0.9080755116979233</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.075332480574389</v>
+        <v>3.075332480574559</v>
       </c>
       <c r="C11">
-        <v>1.149714739044555</v>
+        <v>1.149714739044896</v>
       </c>
       <c r="D11">
-        <v>0.344725390454613</v>
+        <v>0.3447253904546272</v>
       </c>
       <c r="E11">
-        <v>0.08337491981277978</v>
+        <v>0.08337491981275491</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.198022864022931</v>
+        <v>4.198022864022846</v>
       </c>
       <c r="H11">
-        <v>3.037570960274664</v>
+        <v>3.037570960274621</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9729624481214643</v>
+        <v>0.9729624481214216</v>
       </c>
       <c r="K11">
-        <v>0.2960161336599754</v>
+        <v>0.2960161336598972</v>
       </c>
       <c r="L11">
         <v>0.9829523195651078</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.165705844492152</v>
+        <v>3.165705844492265</v>
       </c>
       <c r="C12">
-        <v>1.184080599688514</v>
+        <v>1.184080599688457</v>
       </c>
       <c r="D12">
-        <v>0.3548507999582284</v>
+        <v>0.3548507999584274</v>
       </c>
       <c r="E12">
-        <v>0.08541364166010368</v>
+        <v>0.08541364166017473</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.304872011611337</v>
+        <v>4.304872011611451</v>
       </c>
       <c r="H12">
-        <v>3.11041487460254</v>
+        <v>3.110414874602569</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.001706420448471</v>
+        <v>1.001706420448457</v>
       </c>
       <c r="K12">
-        <v>0.3045086628508216</v>
+        <v>0.3045086628508713</v>
       </c>
       <c r="L12">
-        <v>1.011761887073973</v>
+        <v>1.01176188707398</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>3.146178120006198</v>
       </c>
       <c r="C13">
-        <v>1.176652194980591</v>
+        <v>1.176652194980875</v>
       </c>
       <c r="D13">
-        <v>0.3526625649681989</v>
+        <v>0.3526625649681563</v>
       </c>
       <c r="E13">
-        <v>0.08497285993365011</v>
+        <v>0.08497285993369985</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.281766278520536</v>
+        <v>4.281766278520593</v>
       </c>
       <c r="H13">
-        <v>3.094661475955107</v>
+        <v>3.094661475955135</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0.9954947947930464</v>
       </c>
       <c r="K13">
-        <v>0.302672870844134</v>
+        <v>0.3026728708441411</v>
       </c>
       <c r="L13">
-        <v>1.005535674091583</v>
+        <v>1.00553567409159</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.082738993657813</v>
+        <v>3.08273899365787</v>
       </c>
       <c r="C14">
-        <v>1.152529988364677</v>
+        <v>1.152529988364506</v>
       </c>
       <c r="D14">
-        <v>0.3455550562272123</v>
+        <v>0.3455550562271696</v>
       </c>
       <c r="E14">
-        <v>0.08354188647948391</v>
+        <v>0.08354188647952299</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.206771621127984</v>
+        <v>4.206771621128013</v>
       </c>
       <c r="H14">
-        <v>3.043534859942994</v>
+        <v>3.043534859942966</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9753178491164647</v>
+        <v>0.9753178491164789</v>
       </c>
       <c r="K14">
-        <v>0.2967118042284227</v>
+        <v>0.2967118042284369</v>
       </c>
       <c r="L14">
-        <v>0.985312908286744</v>
+        <v>0.9853129082867724</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.044064338902956</v>
+        <v>3.044064338902558</v>
       </c>
       <c r="C15">
-        <v>1.137831910574732</v>
+        <v>1.137831910574334</v>
       </c>
       <c r="D15">
-        <v>0.3412230985516231</v>
+        <v>0.3412230985516516</v>
       </c>
       <c r="E15">
-        <v>0.08267026841794589</v>
+        <v>0.08267026841792102</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>4.1611041374764</v>
       </c>
       <c r="H15">
-        <v>3.012405057813027</v>
+        <v>3.012405057813041</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9630192185265827</v>
+        <v>0.9630192185265543</v>
       </c>
       <c r="K15">
-        <v>0.293079875977611</v>
+        <v>0.2930798759776039</v>
       </c>
       <c r="L15">
-        <v>0.9729875758331659</v>
+        <v>0.9729875758331588</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,16 +950,16 @@
         <v>1.054711147438923</v>
       </c>
       <c r="D16">
-        <v>0.3167082664015624</v>
+        <v>0.3167082664013208</v>
       </c>
       <c r="E16">
-        <v>0.07774607368938646</v>
+        <v>0.07774607368943265</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.903274402980117</v>
+        <v>3.903274402980145</v>
       </c>
       <c r="H16">
         <v>2.836703283599121</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8934046580509687</v>
+        <v>0.8934046580509261</v>
       </c>
       <c r="K16">
-        <v>0.2725456128624799</v>
+        <v>0.2725456128624941</v>
       </c>
       <c r="L16">
         <v>0.9032415667105838</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.6928784205939</v>
+        <v>2.692878420593672</v>
       </c>
       <c r="C17">
         <v>1.004626503685927</v>
       </c>
       <c r="D17">
-        <v>0.3019239748905989</v>
+        <v>0.3019239748904141</v>
       </c>
       <c r="E17">
-        <v>0.07478387051464708</v>
+        <v>0.074783870514608</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0.8514068936194548</v>
       </c>
       <c r="K17">
-        <v>0.2601783636728499</v>
+        <v>0.2601783636728641</v>
       </c>
       <c r="L17">
-        <v>0.8611830234153146</v>
+        <v>0.8611830234152933</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>2.617570401401338</v>
       </c>
       <c r="C18">
-        <v>0.9761221641154521</v>
+        <v>0.9761221641157363</v>
       </c>
       <c r="D18">
-        <v>0.2935059328202811</v>
+        <v>0.2935059328201106</v>
       </c>
       <c r="E18">
-        <v>0.07309996613557246</v>
+        <v>0.07309996613561864</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>3.660247276264158</v>
       </c>
       <c r="H18">
-        <v>2.671175157878523</v>
+        <v>2.671175157878537</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8274879604223031</v>
+        <v>0.8274879604223742</v>
       </c>
       <c r="K18">
-        <v>0.2531424226437053</v>
+        <v>0.2531424226437338</v>
       </c>
       <c r="L18">
         <v>0.8372366364780035</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.592190305706083</v>
+        <v>2.592190305705913</v>
       </c>
       <c r="C19">
-        <v>0.9665204097046001</v>
+        <v>0.9665204097043727</v>
       </c>
       <c r="D19">
-        <v>0.2906696820153627</v>
+        <v>0.2906696820150358</v>
       </c>
       <c r="E19">
-        <v>0.07253308870225439</v>
+        <v>0.07253308870221176</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.630609928079451</v>
+        <v>3.630609928079423</v>
       </c>
       <c r="H19">
-        <v>2.650995080051146</v>
+        <v>2.65099508005116</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8194280501269731</v>
+        <v>0.8194280501269517</v>
       </c>
       <c r="K19">
         <v>0.2507728261555471</v>
       </c>
       <c r="L19">
-        <v>0.8291687361260003</v>
+        <v>0.8291687361260074</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.706873723506419</v>
+        <v>2.706873723506533</v>
       </c>
       <c r="C20">
         <v>1.009926081623007</v>
       </c>
       <c r="D20">
-        <v>0.3034887639758352</v>
+        <v>0.3034887639756363</v>
       </c>
       <c r="E20">
-        <v>0.07509710876292885</v>
+        <v>0.07509710876297859</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.764686205335266</v>
+        <v>3.764686205335295</v>
       </c>
       <c r="H20">
-        <v>2.742298640130471</v>
+        <v>2.742298640130514</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8558525878733434</v>
+        <v>0.8558525878733292</v>
       </c>
       <c r="K20">
-        <v>0.26148671703735</v>
+        <v>0.2614867170373643</v>
       </c>
       <c r="L20">
-        <v>0.8656344150581106</v>
+        <v>0.8656344150581248</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.101333877077309</v>
+        <v>3.101333877077479</v>
       </c>
       <c r="C21">
-        <v>1.159598923313297</v>
+        <v>1.159598923313638</v>
       </c>
       <c r="D21">
-        <v>0.347638150693939</v>
+        <v>0.3476381506941237</v>
       </c>
       <c r="E21">
         <v>0.083961167362542</v>
@@ -1152,7 +1152,7 @@
         <v>4.228742711098874</v>
       </c>
       <c r="H21">
-        <v>3.058512647906085</v>
+        <v>3.058512647906056</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0.9812315833956262</v>
       </c>
       <c r="K21">
-        <v>0.2984586259033861</v>
+        <v>0.2984586259033222</v>
       </c>
       <c r="L21">
         <v>0.9912398184535078</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.367160935738127</v>
+        <v>3.367160935738184</v>
       </c>
       <c r="C22">
-        <v>1.260802022803091</v>
+        <v>1.260802022803261</v>
       </c>
       <c r="D22">
-        <v>0.37743644506115</v>
+        <v>0.3774364450607095</v>
       </c>
       <c r="E22">
-        <v>0.08996879312318384</v>
+        <v>0.08996879312321227</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.06580978263591</v>
+        <v>1.065809782635924</v>
       </c>
       <c r="K22">
-        <v>0.3234704452662314</v>
+        <v>0.3234704452662172</v>
       </c>
       <c r="L22">
-        <v>1.076027646371458</v>
+        <v>1.076027646371486</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>3.224465380290894</v>
       </c>
       <c r="C23">
-        <v>1.206441882324896</v>
+        <v>1.206441882324555</v>
       </c>
       <c r="D23">
-        <v>0.3614364240889785</v>
+        <v>0.3614364240892201</v>
       </c>
       <c r="E23">
-        <v>0.08674080343107349</v>
+        <v>0.08674080343117652</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.374456714648858</v>
+        <v>4.374456714648829</v>
       </c>
       <c r="H23">
-        <v>3.157861262550369</v>
+        <v>3.157861262550355</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>1.020399657470406</v>
       </c>
       <c r="K23">
-        <v>0.3100350409129078</v>
+        <v>0.3100350409128865</v>
       </c>
       <c r="L23">
-        <v>1.030500317720445</v>
+        <v>1.030500317720453</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.700544318072048</v>
+        <v>2.700544318071877</v>
       </c>
       <c r="C24">
-        <v>1.00752924632576</v>
+        <v>1.007529246325504</v>
       </c>
       <c r="D24">
-        <v>0.3027810704379306</v>
+        <v>0.3027810704377032</v>
       </c>
       <c r="E24">
-        <v>0.07495543463320686</v>
+        <v>0.0749554346331891</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.757276168222688</v>
+        <v>3.757276168222717</v>
       </c>
       <c r="H24">
-        <v>2.737251811353246</v>
+        <v>2.737251811353261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8538419906001167</v>
+        <v>0.8538419906001593</v>
       </c>
       <c r="K24">
-        <v>0.2608949811719441</v>
+        <v>0.2608949811718944</v>
       </c>
       <c r="L24">
-        <v>0.8636212186209562</v>
+        <v>0.8636212186209917</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.162426005614975</v>
+        <v>2.162426005615032</v>
       </c>
       <c r="C25">
-        <v>0.8042835706364997</v>
+        <v>0.804283570636386</v>
       </c>
       <c r="D25">
-        <v>0.2427063973178321</v>
+        <v>0.2427063973180879</v>
       </c>
       <c r="E25">
-        <v>0.06298752375647254</v>
+        <v>0.06298752375651873</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.13195297171228</v>
+        <v>3.131952971712295</v>
       </c>
       <c r="H25">
-        <v>2.311689631405201</v>
+        <v>2.311689631405244</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6830367033828608</v>
+        <v>0.6830367033828821</v>
       </c>
       <c r="K25">
-        <v>0.2107831300145264</v>
+        <v>0.2107831300145122</v>
       </c>
       <c r="L25">
-        <v>0.6927565775478968</v>
+        <v>0.6927565775479252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.782545841402765</v>
+        <v>1.782545841402623</v>
       </c>
       <c r="C2">
-        <v>0.6614039447259472</v>
+        <v>0.6614039447260041</v>
       </c>
       <c r="D2">
-        <v>0.2004217523885501</v>
+        <v>0.200421752388948</v>
       </c>
       <c r="E2">
-        <v>0.05465068096719961</v>
+        <v>0.05465068096723513</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5626084396894058</v>
+        <v>0.56260843968942</v>
       </c>
       <c r="K2">
-        <v>0.1756772907602873</v>
+        <v>0.1756772907602766</v>
       </c>
       <c r="L2">
         <v>0.5725448159246866</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.532467365510939</v>
+        <v>1.532467365510882</v>
       </c>
       <c r="C3">
-        <v>0.5675921559607957</v>
+        <v>0.5675921559605683</v>
       </c>
       <c r="D3">
-        <v>0.1726521291241454</v>
+        <v>0.1726521291241738</v>
       </c>
       <c r="E3">
-        <v>0.04922865314533098</v>
+        <v>0.04922865314532032</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.413940633735493</v>
+        <v>2.413940633735507</v>
       </c>
       <c r="H3">
         <v>1.824101563080745</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4833909389109863</v>
+        <v>0.4833909389109934</v>
       </c>
       <c r="K3">
-        <v>0.152716873347412</v>
+        <v>0.1527168733474298</v>
       </c>
       <c r="L3">
-        <v>0.4936380934985536</v>
+        <v>0.4936380934985465</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.381760198796798</v>
+        <v>1.381760198796854</v>
       </c>
       <c r="C4">
-        <v>0.5111430129321093</v>
+        <v>0.5111430129321377</v>
       </c>
       <c r="D4">
-        <v>0.155946309106767</v>
+        <v>0.1559463091068665</v>
       </c>
       <c r="E4">
-        <v>0.04599245799556684</v>
+        <v>0.04599245799553842</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>2.245018402621071</v>
       </c>
       <c r="H4">
-        <v>1.709616649122736</v>
+        <v>1.709616649122694</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4356724223699047</v>
+        <v>0.4356724223698976</v>
       </c>
       <c r="K4">
-        <v>0.1389481452222654</v>
+        <v>0.1389481452222014</v>
       </c>
       <c r="L4">
-        <v>0.4461909854937645</v>
+        <v>0.4461909854937716</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>1.32095546979275</v>
       </c>
       <c r="C5">
-        <v>0.4883844925002734</v>
+        <v>0.4883844925005576</v>
       </c>
       <c r="D5">
-        <v>0.1492129497374322</v>
+        <v>0.1492129497371906</v>
       </c>
       <c r="E5">
-        <v>0.04469445552440732</v>
+        <v>0.04469445552443929</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.177241354356994</v>
+        <v>2.17724135435698</v>
       </c>
       <c r="H5">
-        <v>1.663712743348995</v>
+        <v>1.663712743348981</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4164238275176686</v>
+        <v>0.4164238275176473</v>
       </c>
       <c r="K5">
-        <v>0.1334092709584951</v>
+        <v>0.1334092709584986</v>
       </c>
       <c r="L5">
-        <v>0.4270731420325546</v>
+        <v>0.4270731420325689</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.310892832237329</v>
+        <v>1.310892832237357</v>
       </c>
       <c r="C6">
-        <v>0.4846190292796848</v>
+        <v>0.4846190292799122</v>
       </c>
       <c r="D6">
-        <v>0.1480990354051812</v>
+        <v>0.1480990354052949</v>
       </c>
       <c r="E6">
-        <v>0.04448010615912246</v>
+        <v>0.04448010615905851</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.166047051594532</v>
+        <v>2.166047051594546</v>
       </c>
       <c r="H6">
         <v>1.656132941551988</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.413238567697185</v>
+        <v>0.4132385676971779</v>
       </c>
       <c r="K6">
-        <v>0.1324935977775858</v>
+        <v>0.1324935977775787</v>
       </c>
       <c r="L6">
-        <v>0.4239108060482408</v>
+        <v>0.4239108060482266</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.380937827961645</v>
+        <v>1.380937827961901</v>
       </c>
       <c r="C7">
-        <v>0.5108351475774384</v>
+        <v>0.5108351475776658</v>
       </c>
       <c r="D7">
-        <v>0.1558552148850083</v>
+        <v>0.1558552148851504</v>
       </c>
       <c r="E7">
-        <v>0.0459748718403965</v>
+        <v>0.04597487184033966</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>2.24410022794757</v>
       </c>
       <c r="H7">
-        <v>1.70899466411143</v>
+        <v>1.708994664111415</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4354120744080276</v>
+        <v>0.4354120744079992</v>
       </c>
       <c r="K7">
-        <v>0.1388731680147259</v>
+        <v>0.1388731680147153</v>
       </c>
       <c r="L7">
-        <v>0.4459323194931244</v>
+        <v>0.4459323194931173</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>1.695662417787133</v>
       </c>
       <c r="C8">
-        <v>0.6287903144496738</v>
+        <v>0.6287903144499296</v>
       </c>
       <c r="D8">
-        <v>0.1907674255506606</v>
+        <v>0.190767425550689</v>
       </c>
       <c r="E8">
-        <v>0.05276023292976362</v>
+        <v>0.05276023292977072</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>2.598225858030091</v>
       </c>
       <c r="H8">
-        <v>1.949110366068069</v>
+        <v>1.949110366068084</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5350811021067017</v>
+        <v>0.5350811021066946</v>
       </c>
       <c r="K8">
-        <v>0.1676854432144381</v>
+        <v>0.1676854432144452</v>
       </c>
       <c r="L8">
-        <v>0.5451078574562942</v>
+        <v>0.5451078574562871</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,28 +681,28 @@
         <v>2.34073871019865</v>
       </c>
       <c r="C9">
-        <v>0.8715176351970797</v>
+        <v>0.8715176351965397</v>
       </c>
       <c r="D9">
-        <v>0.2625917299958189</v>
+        <v>0.26259172999562</v>
       </c>
       <c r="E9">
-        <v>0.0669351061996295</v>
+        <v>0.06693510619967924</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.338089549574448</v>
+        <v>3.338089549574519</v>
       </c>
       <c r="H9">
-        <v>2.451897248447622</v>
+        <v>2.451897248447651</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7396066763258489</v>
+        <v>0.7396066763258773</v>
       </c>
       <c r="K9">
         <v>0.2273429877630377</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.840253356239145</v>
+        <v>2.840253356239032</v>
       </c>
       <c r="C10">
-        <v>1.060469359229359</v>
+        <v>1.060469359229273</v>
       </c>
       <c r="D10">
-        <v>0.3184074160030264</v>
+        <v>0.3184074160031685</v>
       </c>
       <c r="E10">
-        <v>0.07808689314648731</v>
+        <v>0.07808689314651929</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.92111078477231</v>
+        <v>3.921110784772338</v>
       </c>
       <c r="H10">
-        <v>2.848855230421293</v>
+        <v>2.848855230421336</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.898230664650967</v>
+        <v>0.8982306646509812</v>
       </c>
       <c r="K10">
-        <v>0.273967787955911</v>
+        <v>0.2739677879559324</v>
       </c>
       <c r="L10">
-        <v>0.9080755116979233</v>
+        <v>0.9080755116979375</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.075332480574559</v>
+        <v>3.075332480574389</v>
       </c>
       <c r="C11">
-        <v>1.149714739044896</v>
+        <v>1.149714739044555</v>
       </c>
       <c r="D11">
-        <v>0.3447253904546272</v>
+        <v>0.344725390454613</v>
       </c>
       <c r="E11">
-        <v>0.08337491981275491</v>
+        <v>0.08337491981277978</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.198022864022846</v>
+        <v>4.198022864022931</v>
       </c>
       <c r="H11">
-        <v>3.037570960274621</v>
+        <v>3.037570960274664</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9729624481214216</v>
+        <v>0.9729624481214643</v>
       </c>
       <c r="K11">
-        <v>0.2960161336598972</v>
+        <v>0.2960161336599754</v>
       </c>
       <c r="L11">
         <v>0.9829523195651078</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.165705844492265</v>
+        <v>3.165705844492152</v>
       </c>
       <c r="C12">
-        <v>1.184080599688457</v>
+        <v>1.184080599688514</v>
       </c>
       <c r="D12">
-        <v>0.3548507999584274</v>
+        <v>0.3548507999582284</v>
       </c>
       <c r="E12">
-        <v>0.08541364166017473</v>
+        <v>0.08541364166010368</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.304872011611451</v>
+        <v>4.304872011611337</v>
       </c>
       <c r="H12">
-        <v>3.110414874602569</v>
+        <v>3.11041487460254</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.001706420448457</v>
+        <v>1.001706420448471</v>
       </c>
       <c r="K12">
-        <v>0.3045086628508713</v>
+        <v>0.3045086628508216</v>
       </c>
       <c r="L12">
-        <v>1.01176188707398</v>
+        <v>1.011761887073973</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>3.146178120006198</v>
       </c>
       <c r="C13">
-        <v>1.176652194980875</v>
+        <v>1.176652194980591</v>
       </c>
       <c r="D13">
-        <v>0.3526625649681563</v>
+        <v>0.3526625649681989</v>
       </c>
       <c r="E13">
-        <v>0.08497285993369985</v>
+        <v>0.08497285993365011</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.281766278520593</v>
+        <v>4.281766278520536</v>
       </c>
       <c r="H13">
-        <v>3.094661475955135</v>
+        <v>3.094661475955107</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0.9954947947930464</v>
       </c>
       <c r="K13">
-        <v>0.3026728708441411</v>
+        <v>0.302672870844134</v>
       </c>
       <c r="L13">
-        <v>1.00553567409159</v>
+        <v>1.005535674091583</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.08273899365787</v>
+        <v>3.082738993657813</v>
       </c>
       <c r="C14">
-        <v>1.152529988364506</v>
+        <v>1.152529988364677</v>
       </c>
       <c r="D14">
-        <v>0.3455550562271696</v>
+        <v>0.3455550562272123</v>
       </c>
       <c r="E14">
-        <v>0.08354188647952299</v>
+        <v>0.08354188647948391</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.206771621128013</v>
+        <v>4.206771621127984</v>
       </c>
       <c r="H14">
-        <v>3.043534859942966</v>
+        <v>3.043534859942994</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9753178491164789</v>
+        <v>0.9753178491164647</v>
       </c>
       <c r="K14">
-        <v>0.2967118042284369</v>
+        <v>0.2967118042284227</v>
       </c>
       <c r="L14">
-        <v>0.9853129082867724</v>
+        <v>0.985312908286744</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.044064338902558</v>
+        <v>3.044064338902956</v>
       </c>
       <c r="C15">
-        <v>1.137831910574334</v>
+        <v>1.137831910574732</v>
       </c>
       <c r="D15">
-        <v>0.3412230985516516</v>
+        <v>0.3412230985516231</v>
       </c>
       <c r="E15">
-        <v>0.08267026841792102</v>
+        <v>0.08267026841794589</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>4.1611041374764</v>
       </c>
       <c r="H15">
-        <v>3.012405057813041</v>
+        <v>3.012405057813027</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9630192185265543</v>
+        <v>0.9630192185265827</v>
       </c>
       <c r="K15">
-        <v>0.2930798759776039</v>
+        <v>0.293079875977611</v>
       </c>
       <c r="L15">
-        <v>0.9729875758331588</v>
+        <v>0.9729875758331659</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,16 +950,16 @@
         <v>1.054711147438923</v>
       </c>
       <c r="D16">
-        <v>0.3167082664013208</v>
+        <v>0.3167082664015624</v>
       </c>
       <c r="E16">
-        <v>0.07774607368943265</v>
+        <v>0.07774607368938646</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.903274402980145</v>
+        <v>3.903274402980117</v>
       </c>
       <c r="H16">
         <v>2.836703283599121</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8934046580509261</v>
+        <v>0.8934046580509687</v>
       </c>
       <c r="K16">
-        <v>0.2725456128624941</v>
+        <v>0.2725456128624799</v>
       </c>
       <c r="L16">
         <v>0.9032415667105838</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.692878420593672</v>
+        <v>2.6928784205939</v>
       </c>
       <c r="C17">
         <v>1.004626503685927</v>
       </c>
       <c r="D17">
-        <v>0.3019239748904141</v>
+        <v>0.3019239748905989</v>
       </c>
       <c r="E17">
-        <v>0.074783870514608</v>
+        <v>0.07478387051464708</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0.8514068936194548</v>
       </c>
       <c r="K17">
-        <v>0.2601783636728641</v>
+        <v>0.2601783636728499</v>
       </c>
       <c r="L17">
-        <v>0.8611830234152933</v>
+        <v>0.8611830234153146</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>2.617570401401338</v>
       </c>
       <c r="C18">
-        <v>0.9761221641157363</v>
+        <v>0.9761221641154521</v>
       </c>
       <c r="D18">
-        <v>0.2935059328201106</v>
+        <v>0.2935059328202811</v>
       </c>
       <c r="E18">
-        <v>0.07309996613561864</v>
+        <v>0.07309996613557246</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>3.660247276264158</v>
       </c>
       <c r="H18">
-        <v>2.671175157878537</v>
+        <v>2.671175157878523</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8274879604223742</v>
+        <v>0.8274879604223031</v>
       </c>
       <c r="K18">
-        <v>0.2531424226437338</v>
+        <v>0.2531424226437053</v>
       </c>
       <c r="L18">
         <v>0.8372366364780035</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.592190305705913</v>
+        <v>2.592190305706083</v>
       </c>
       <c r="C19">
-        <v>0.9665204097043727</v>
+        <v>0.9665204097046001</v>
       </c>
       <c r="D19">
-        <v>0.2906696820150358</v>
+        <v>0.2906696820153627</v>
       </c>
       <c r="E19">
-        <v>0.07253308870221176</v>
+        <v>0.07253308870225439</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.630609928079423</v>
+        <v>3.630609928079451</v>
       </c>
       <c r="H19">
-        <v>2.65099508005116</v>
+        <v>2.650995080051146</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8194280501269517</v>
+        <v>0.8194280501269731</v>
       </c>
       <c r="K19">
         <v>0.2507728261555471</v>
       </c>
       <c r="L19">
-        <v>0.8291687361260074</v>
+        <v>0.8291687361260003</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.706873723506533</v>
+        <v>2.706873723506419</v>
       </c>
       <c r="C20">
         <v>1.009926081623007</v>
       </c>
       <c r="D20">
-        <v>0.3034887639756363</v>
+        <v>0.3034887639758352</v>
       </c>
       <c r="E20">
-        <v>0.07509710876297859</v>
+        <v>0.07509710876292885</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.764686205335295</v>
+        <v>3.764686205335266</v>
       </c>
       <c r="H20">
-        <v>2.742298640130514</v>
+        <v>2.742298640130471</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8558525878733292</v>
+        <v>0.8558525878733434</v>
       </c>
       <c r="K20">
-        <v>0.2614867170373643</v>
+        <v>0.26148671703735</v>
       </c>
       <c r="L20">
-        <v>0.8656344150581248</v>
+        <v>0.8656344150581106</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.101333877077479</v>
+        <v>3.101333877077309</v>
       </c>
       <c r="C21">
-        <v>1.159598923313638</v>
+        <v>1.159598923313297</v>
       </c>
       <c r="D21">
-        <v>0.3476381506941237</v>
+        <v>0.347638150693939</v>
       </c>
       <c r="E21">
         <v>0.083961167362542</v>
@@ -1152,7 +1152,7 @@
         <v>4.228742711098874</v>
       </c>
       <c r="H21">
-        <v>3.058512647906056</v>
+        <v>3.058512647906085</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0.9812315833956262</v>
       </c>
       <c r="K21">
-        <v>0.2984586259033222</v>
+        <v>0.2984586259033861</v>
       </c>
       <c r="L21">
         <v>0.9912398184535078</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.367160935738184</v>
+        <v>3.367160935738127</v>
       </c>
       <c r="C22">
-        <v>1.260802022803261</v>
+        <v>1.260802022803091</v>
       </c>
       <c r="D22">
-        <v>0.3774364450607095</v>
+        <v>0.37743644506115</v>
       </c>
       <c r="E22">
-        <v>0.08996879312321227</v>
+        <v>0.08996879312318384</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.065809782635924</v>
+        <v>1.06580978263591</v>
       </c>
       <c r="K22">
-        <v>0.3234704452662172</v>
+        <v>0.3234704452662314</v>
       </c>
       <c r="L22">
-        <v>1.076027646371486</v>
+        <v>1.076027646371458</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>3.224465380290894</v>
       </c>
       <c r="C23">
-        <v>1.206441882324555</v>
+        <v>1.206441882324896</v>
       </c>
       <c r="D23">
-        <v>0.3614364240892201</v>
+        <v>0.3614364240889785</v>
       </c>
       <c r="E23">
-        <v>0.08674080343117652</v>
+        <v>0.08674080343107349</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.374456714648829</v>
+        <v>4.374456714648858</v>
       </c>
       <c r="H23">
-        <v>3.157861262550355</v>
+        <v>3.157861262550369</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>1.020399657470406</v>
       </c>
       <c r="K23">
-        <v>0.3100350409128865</v>
+        <v>0.3100350409129078</v>
       </c>
       <c r="L23">
-        <v>1.030500317720453</v>
+        <v>1.030500317720445</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.700544318071877</v>
+        <v>2.700544318072048</v>
       </c>
       <c r="C24">
-        <v>1.007529246325504</v>
+        <v>1.00752924632576</v>
       </c>
       <c r="D24">
-        <v>0.3027810704377032</v>
+        <v>0.3027810704379306</v>
       </c>
       <c r="E24">
-        <v>0.0749554346331891</v>
+        <v>0.07495543463320686</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.757276168222717</v>
+        <v>3.757276168222688</v>
       </c>
       <c r="H24">
-        <v>2.737251811353261</v>
+        <v>2.737251811353246</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8538419906001593</v>
+        <v>0.8538419906001167</v>
       </c>
       <c r="K24">
-        <v>0.2608949811718944</v>
+        <v>0.2608949811719441</v>
       </c>
       <c r="L24">
-        <v>0.8636212186209917</v>
+        <v>0.8636212186209562</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.162426005615032</v>
+        <v>2.162426005614975</v>
       </c>
       <c r="C25">
-        <v>0.804283570636386</v>
+        <v>0.8042835706364997</v>
       </c>
       <c r="D25">
-        <v>0.2427063973180879</v>
+        <v>0.2427063973178321</v>
       </c>
       <c r="E25">
-        <v>0.06298752375651873</v>
+        <v>0.06298752375647254</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.131952971712295</v>
+        <v>3.13195297171228</v>
       </c>
       <c r="H25">
-        <v>2.311689631405244</v>
+        <v>2.311689631405201</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6830367033828821</v>
+        <v>0.6830367033828608</v>
       </c>
       <c r="K25">
-        <v>0.2107831300145122</v>
+        <v>0.2107831300145264</v>
       </c>
       <c r="L25">
-        <v>0.6927565775479252</v>
+        <v>0.6927565775478968</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.782545841402623</v>
+        <v>1.782576990056924</v>
       </c>
       <c r="C2">
-        <v>0.6614039447260041</v>
+        <v>0.6606203420581096</v>
       </c>
       <c r="D2">
-        <v>0.200421752388948</v>
+        <v>0.2004157112373406</v>
       </c>
       <c r="E2">
-        <v>0.05465068096723513</v>
+        <v>0.05468304150838676</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.696865523482941</v>
+        <v>0.8653806382320539</v>
       </c>
       <c r="H2">
-        <v>2.016064456013979</v>
+        <v>1.826975012635643</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.010540622383701</v>
       </c>
       <c r="J2">
-        <v>0.56260843968942</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1756772907602766</v>
+        <v>0.5624122138320899</v>
       </c>
       <c r="L2">
-        <v>0.5725448159246866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.175617382319647</v>
+      </c>
+      <c r="M2">
+        <v>0.5724749922025865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.532467365510882</v>
+        <v>1.532533384765031</v>
       </c>
       <c r="C3">
-        <v>0.5675921559605683</v>
+        <v>0.566925585583391</v>
       </c>
       <c r="D3">
-        <v>0.1726521291241738</v>
+        <v>0.172649003130374</v>
       </c>
       <c r="E3">
-        <v>0.04922865314532032</v>
+        <v>0.04925879488692075</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.413940633735507</v>
+        <v>0.7684094824286092</v>
       </c>
       <c r="H3">
-        <v>1.824101563080745</v>
+        <v>1.642127060859821</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.819224155192273</v>
       </c>
       <c r="J3">
-        <v>0.4833909389109934</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1527168733474298</v>
+        <v>0.4832324234430629</v>
       </c>
       <c r="L3">
-        <v>0.4936380934985465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1526657556558746</v>
+      </c>
+      <c r="M3">
+        <v>0.493584423225542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.381760198796854</v>
+        <v>1.381841120383854</v>
       </c>
       <c r="C4">
-        <v>0.5111430129321377</v>
+        <v>0.5105451598357718</v>
       </c>
       <c r="D4">
-        <v>0.1559463091068665</v>
+        <v>0.1559446113396348</v>
       </c>
       <c r="E4">
-        <v>0.04599245799553842</v>
+        <v>0.04602133077768045</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.245018402621071</v>
+        <v>0.7104351683829151</v>
       </c>
       <c r="H4">
-        <v>1.709616649122694</v>
+        <v>1.531845246462495</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.705129531263182</v>
       </c>
       <c r="J4">
-        <v>0.4356724223698976</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1389481452222014</v>
+        <v>0.4355348270979817</v>
       </c>
       <c r="L4">
-        <v>0.4461909854937716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.138902119303232</v>
+      </c>
+      <c r="M4">
+        <v>0.4461456148921741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.32095546979275</v>
+        <v>1.321041043163945</v>
       </c>
       <c r="C5">
-        <v>0.4883844925005576</v>
+        <v>0.4878139725469168</v>
       </c>
       <c r="D5">
-        <v>0.1492129497371906</v>
+        <v>0.1492117586785611</v>
       </c>
       <c r="E5">
-        <v>0.04469445552443929</v>
+        <v>0.04472283429604218</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.17724135435698</v>
+        <v>0.6871548676139128</v>
       </c>
       <c r="H5">
-        <v>1.663712743348981</v>
+        <v>1.487617276785656</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.659383328010605</v>
       </c>
       <c r="J5">
-        <v>0.4164238275176473</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1334092709584986</v>
+        <v>0.4162942735921433</v>
       </c>
       <c r="L5">
-        <v>0.4270731420325689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1333652568755959</v>
+      </c>
+      <c r="M5">
+        <v>0.4270308041614825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.310892832237357</v>
+        <v>1.310979097997517</v>
       </c>
       <c r="C6">
-        <v>0.4846190292799122</v>
+        <v>0.4840530107659333</v>
       </c>
       <c r="D6">
-        <v>0.1480990354052949</v>
+        <v>0.1480979243518448</v>
       </c>
       <c r="E6">
-        <v>0.04448010615905851</v>
+        <v>0.04450840428246394</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.166047051594546</v>
+        <v>0.6833086575783653</v>
       </c>
       <c r="H6">
-        <v>1.656132941551988</v>
+        <v>1.480313668929952</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.651829640135404</v>
       </c>
       <c r="J6">
-        <v>0.4132385676971779</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1324935977775787</v>
+        <v>0.4131103219090235</v>
       </c>
       <c r="L6">
-        <v>0.4239108060482266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1324499143140159</v>
+      </c>
+      <c r="M6">
+        <v>0.4238689521937644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.380937827961901</v>
+        <v>1.381018817773054</v>
       </c>
       <c r="C7">
-        <v>0.5108351475776658</v>
+        <v>0.5102376656694503</v>
       </c>
       <c r="D7">
-        <v>0.1558552148851504</v>
+        <v>0.1558535242375143</v>
       </c>
       <c r="E7">
-        <v>0.04597487184033966</v>
+        <v>0.04600373786718848</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.24410022794757</v>
+        <v>0.7101198681530576</v>
       </c>
       <c r="H7">
-        <v>1.708994664111415</v>
+        <v>1.531246006932818</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.704509678126456</v>
       </c>
       <c r="J7">
-        <v>0.4354120744079992</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1388731680147153</v>
+        <v>0.4352745894473244</v>
       </c>
       <c r="L7">
-        <v>0.4459323194931173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.138827169466758</v>
+      </c>
+      <c r="M7">
+        <v>0.4458869911363053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.695662417787133</v>
+        <v>1.69570707937217</v>
       </c>
       <c r="C8">
-        <v>0.6287903144499296</v>
+        <v>0.6280477935302429</v>
       </c>
       <c r="D8">
-        <v>0.190767425550689</v>
+        <v>0.1907624747827299</v>
       </c>
       <c r="E8">
-        <v>0.05276023292977072</v>
+        <v>0.0527918088556163</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.598225858030091</v>
+        <v>0.8315888041906589</v>
       </c>
       <c r="H8">
-        <v>1.949110366068084</v>
+        <v>1.762511484003099</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.943810998104212</v>
       </c>
       <c r="J8">
-        <v>0.5350811021066946</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1676854432144452</v>
+        <v>0.5348983926313835</v>
       </c>
       <c r="L8">
-        <v>0.5451078574562871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1676286382351861</v>
+      </c>
+      <c r="M8">
+        <v>0.5450439765546804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.34073871019865</v>
+        <v>2.340649053522384</v>
       </c>
       <c r="C9">
-        <v>0.8715176351965397</v>
+        <v>0.8704594396319294</v>
       </c>
       <c r="D9">
-        <v>0.26259172999562</v>
+        <v>0.2625766655929311</v>
       </c>
       <c r="E9">
-        <v>0.06693510619967924</v>
+        <v>0.06697274568683298</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.338089549574519</v>
+        <v>1.084710303451388</v>
       </c>
       <c r="H9">
-        <v>2.451897248447651</v>
+        <v>2.246394123116573</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.444931697696504</v>
       </c>
       <c r="J9">
-        <v>0.7396066763258773</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2273429877630377</v>
+        <v>0.7393134267221484</v>
       </c>
       <c r="L9">
-        <v>0.7493066407692766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2272618183409065</v>
+      </c>
+      <c r="M9">
+        <v>0.7491904557171551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.840253356239032</v>
+        <v>2.840007250436315</v>
       </c>
       <c r="C10">
-        <v>1.060469359229273</v>
+        <v>1.059149591957492</v>
       </c>
       <c r="D10">
-        <v>0.3184074160031685</v>
+        <v>0.3183811769829816</v>
       </c>
       <c r="E10">
-        <v>0.07808689314651929</v>
+        <v>0.07812943500415059</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.921110784772338</v>
+        <v>1.283744144894712</v>
       </c>
       <c r="H10">
-        <v>2.848855230421336</v>
+        <v>2.628152347211682</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.840595915904899</v>
       </c>
       <c r="J10">
-        <v>0.8982306646509812</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2739677879559324</v>
+        <v>0.8978359314635185</v>
       </c>
       <c r="L10">
-        <v>0.9080755116979375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2738654938476728</v>
+      </c>
+      <c r="M10">
+        <v>0.9079059438594967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.075332480574389</v>
+        <v>3.074997086124995</v>
       </c>
       <c r="C11">
-        <v>1.149714739044555</v>
+        <v>1.148266522939821</v>
       </c>
       <c r="D11">
-        <v>0.344725390454613</v>
+        <v>0.3446928145338006</v>
       </c>
       <c r="E11">
-        <v>0.08337491981277978</v>
+        <v>0.08341977757102015</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.198022864022931</v>
+        <v>1.378179022049267</v>
       </c>
       <c r="H11">
-        <v>3.037570960274664</v>
+        <v>2.809574295267851</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.028700333129791</v>
       </c>
       <c r="J11">
-        <v>0.9729624481214643</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2960161336599754</v>
+        <v>0.9725151515575163</v>
       </c>
       <c r="L11">
-        <v>0.9829523195651078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2959031469915416</v>
+      </c>
+      <c r="M11">
+        <v>0.9827536876352454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.165705844492152</v>
+        <v>3.165333437512686</v>
       </c>
       <c r="C12">
-        <v>1.184080599688514</v>
+        <v>1.18258206471512</v>
       </c>
       <c r="D12">
-        <v>0.3548507999582284</v>
+        <v>0.3548155958857535</v>
       </c>
       <c r="E12">
-        <v>0.08541364166010368</v>
+        <v>0.08545938674233966</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.304872011611337</v>
+        <v>1.414603018115429</v>
       </c>
       <c r="H12">
-        <v>3.11041487460254</v>
+        <v>2.879592560050298</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.101308696297423</v>
       </c>
       <c r="J12">
-        <v>1.001706420448471</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3045086628508216</v>
+        <v>1.001238087231641</v>
       </c>
       <c r="L12">
-        <v>1.011761887073973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.304391429772906</v>
+      </c>
+      <c r="M12">
+        <v>1.01155139682087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.146178120006198</v>
+        <v>3.145813837612195</v>
       </c>
       <c r="C13">
-        <v>1.176652194980591</v>
+        <v>1.175164577508326</v>
       </c>
       <c r="D13">
-        <v>0.3526625649681989</v>
+        <v>0.3526279379737929</v>
       </c>
       <c r="E13">
-        <v>0.08497285993365011</v>
+        <v>0.08501841349819017</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.281766278520536</v>
+        <v>1.406727118643857</v>
       </c>
       <c r="H13">
-        <v>3.094661475955107</v>
+        <v>2.864450705270542</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.085606222575308</v>
       </c>
       <c r="J13">
-        <v>0.9954947947930464</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.302672870844134</v>
+        <v>0.9950310464236907</v>
       </c>
       <c r="L13">
-        <v>1.005535674091583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3025565618564841</v>
+      </c>
+      <c r="M13">
+        <v>1.005327778690031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.082738993657813</v>
+        <v>3.082400622199032</v>
       </c>
       <c r="C14">
-        <v>1.152529988364677</v>
+        <v>1.151077668191306</v>
       </c>
       <c r="D14">
-        <v>0.3455550562272123</v>
+        <v>0.3455222689853201</v>
       </c>
       <c r="E14">
-        <v>0.08354188647948391</v>
+        <v>0.08358681704629589</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.206771621127984</v>
+        <v>1.381161694900243</v>
       </c>
       <c r="H14">
-        <v>3.043534859942994</v>
+        <v>2.815307059436378</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.034644940290562</v>
       </c>
       <c r="J14">
-        <v>0.9753178491164647</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2967118042284227</v>
+        <v>0.9748688459230124</v>
       </c>
       <c r="L14">
-        <v>0.985312908286744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2965984724353774</v>
+      </c>
+      <c r="M14">
+        <v>0.9851133189295496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.044064338902956</v>
+        <v>3.043741401878947</v>
       </c>
       <c r="C15">
-        <v>1.137831910574732</v>
+        <v>1.136400981891711</v>
       </c>
       <c r="D15">
-        <v>0.3412230985516231</v>
+        <v>0.3411914068214799</v>
       </c>
       <c r="E15">
-        <v>0.08267026841794589</v>
+        <v>0.08271481865034858</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.1611041374764</v>
+        <v>1.365591905397736</v>
       </c>
       <c r="H15">
-        <v>3.012405057813027</v>
+        <v>2.785383302527521</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.003615855127137</v>
       </c>
       <c r="J15">
-        <v>0.9630192185265827</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.293079875977611</v>
+        <v>0.9625790926729962</v>
       </c>
       <c r="L15">
-        <v>0.9729875758331659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2929683406927239</v>
+      </c>
+      <c r="M15">
+        <v>0.9727929576212588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.825066773565936</v>
+        <v>2.824826090381066</v>
       </c>
       <c r="C16">
-        <v>1.054711147438923</v>
+        <v>1.053399558574739</v>
       </c>
       <c r="D16">
-        <v>0.3167082664015624</v>
+        <v>0.3166824124204908</v>
       </c>
       <c r="E16">
-        <v>0.07774607368938646</v>
+        <v>0.07778846577645737</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.903274402980117</v>
+        <v>1.277659451342004</v>
       </c>
       <c r="H16">
-        <v>2.836703283599121</v>
+        <v>2.616468682725554</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.82848339777928</v>
       </c>
       <c r="J16">
-        <v>0.8934046580509687</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2725456128624799</v>
+        <v>0.8930132141504998</v>
       </c>
       <c r="L16">
-        <v>0.9032415667105838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2724439924058615</v>
+      </c>
+      <c r="M16">
+        <v>0.9030737888142397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.6928784205939</v>
+        <v>2.692683172027387</v>
       </c>
       <c r="C17">
-        <v>1.004626503685927</v>
+        <v>1.003385497129159</v>
       </c>
       <c r="D17">
-        <v>0.3019239748905989</v>
+        <v>0.301901350236605</v>
       </c>
       <c r="E17">
-        <v>0.07478387051464708</v>
+        <v>0.07482495951043333</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.748303054609039</v>
+        <v>1.224781816641155</v>
       </c>
       <c r="H17">
-        <v>2.731140513767585</v>
+        <v>2.5149663572968</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.723263539360403</v>
       </c>
       <c r="J17">
-        <v>0.8514068936194548</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2601783636728499</v>
+        <v>0.8510435386450439</v>
       </c>
       <c r="L17">
-        <v>0.8611830234153146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2600825215943203</v>
+      </c>
+      <c r="M17">
+        <v>0.8610303806296287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.617570401401338</v>
+        <v>2.617399622461903</v>
       </c>
       <c r="C18">
-        <v>0.9761221641154521</v>
+        <v>0.9749208868146013</v>
       </c>
       <c r="D18">
-        <v>0.2935059328202811</v>
+        <v>0.2934850510775675</v>
       </c>
       <c r="E18">
-        <v>0.07309996613557246</v>
+        <v>0.07314031387242181</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.660247276264158</v>
+        <v>1.194727395073301</v>
       </c>
       <c r="H18">
-        <v>2.671175157878523</v>
+        <v>2.45730136888622</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.663493328450244</v>
       </c>
       <c r="J18">
-        <v>0.8274879604223031</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2531424226437053</v>
+        <v>0.8271401742784974</v>
       </c>
       <c r="L18">
-        <v>0.8372366364780035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2530498052067855</v>
+      </c>
+      <c r="M18">
+        <v>0.8370922608721543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.592190305706083</v>
+        <v>2.592027542225708</v>
       </c>
       <c r="C19">
-        <v>0.9665204097046001</v>
+        <v>0.9653324436446837</v>
       </c>
       <c r="D19">
-        <v>0.2906696820153627</v>
+        <v>0.2906493720156078</v>
       </c>
       <c r="E19">
-        <v>0.07253308870225439</v>
+        <v>0.07257318692218817</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.630609928079451</v>
+        <v>1.18461030573701</v>
       </c>
       <c r="H19">
-        <v>2.650995080051146</v>
+        <v>2.437894386402405</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.643378986199181</v>
       </c>
       <c r="J19">
-        <v>0.8194280501269731</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2507728261555471</v>
+        <v>0.8190854402221532</v>
       </c>
       <c r="L19">
-        <v>0.8291687361260003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2506812846522521</v>
+      </c>
+      <c r="M19">
+        <v>0.8290270888430911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.706873723506419</v>
+        <v>2.706673814386363</v>
       </c>
       <c r="C20">
-        <v>1.009926081623007</v>
+        <v>1.008677653370484</v>
       </c>
       <c r="D20">
-        <v>0.3034887639758352</v>
+        <v>0.3034658077196326</v>
       </c>
       <c r="E20">
-        <v>0.07509710876292885</v>
+        <v>0.07513833563303862</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.764686205335266</v>
+        <v>1.230372834499661</v>
       </c>
       <c r="H20">
-        <v>2.742298640130471</v>
+        <v>2.525695936413456</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.734385383596575</v>
       </c>
       <c r="J20">
-        <v>0.8558525878733434</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.26148671703735</v>
+        <v>0.8554863049490535</v>
       </c>
       <c r="L20">
-        <v>0.8656344150581106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2613902703504678</v>
+      </c>
+      <c r="M20">
+        <v>0.8654802075388801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.101333877077309</v>
+        <v>3.100987987224642</v>
       </c>
       <c r="C21">
-        <v>1.159598923313297</v>
+        <v>1.158136283883948</v>
       </c>
       <c r="D21">
-        <v>0.347638150693939</v>
+        <v>0.3476048297168433</v>
       </c>
       <c r="E21">
-        <v>0.083961167362542</v>
+        <v>0.08400628065944105</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.228742711098874</v>
+        <v>1.388651962703278</v>
       </c>
       <c r="H21">
-        <v>3.058512647906085</v>
+        <v>2.829704207401477</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.049574282958915</v>
       </c>
       <c r="J21">
-        <v>0.9812315833956262</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2984586259033861</v>
+        <v>0.9807782818314763</v>
       </c>
       <c r="L21">
-        <v>0.9912398184535078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2983444253745802</v>
+      </c>
+      <c r="M21">
+        <v>0.9910378140477647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.367160935738127</v>
+        <v>3.366700602690742</v>
       </c>
       <c r="C22">
-        <v>1.260802022803091</v>
+        <v>1.2591894025133</v>
       </c>
       <c r="D22">
-        <v>0.37743644506115</v>
+        <v>0.3773949866589987</v>
       </c>
       <c r="E22">
-        <v>0.08996879312318384</v>
+        <v>0.09001650493112479</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.54380090285062</v>
+        <v>1.496024876810139</v>
       </c>
       <c r="H22">
-        <v>3.273351780890351</v>
+        <v>3.036189976273079</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.26371929739399</v>
       </c>
       <c r="J22">
-        <v>1.06580978263591</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3234704452662314</v>
+        <v>1.06529287642482</v>
       </c>
       <c r="L22">
-        <v>1.076027646371458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3233434640062072</v>
+      </c>
+      <c r="M22">
+        <v>1.075789329440418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.224465380290894</v>
+        <v>3.224068102768911</v>
       </c>
       <c r="C23">
-        <v>1.206441882324896</v>
+        <v>1.20491034671096</v>
       </c>
       <c r="D23">
-        <v>0.3614364240889785</v>
+        <v>0.3613994527356681</v>
       </c>
       <c r="E23">
-        <v>0.08674080343107349</v>
+        <v>0.08678712397028221</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.374456714648858</v>
+        <v>1.438319765830727</v>
       </c>
       <c r="H23">
-        <v>3.157861262550369</v>
+        <v>2.9251955823174</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.148601755034548</v>
       </c>
       <c r="J23">
-        <v>1.020399657470406</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3100350409129078</v>
+        <v>1.019917397178858</v>
       </c>
       <c r="L23">
-        <v>1.030500317720445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3099150052491737</v>
+      </c>
+      <c r="M23">
+        <v>1.030281910784993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.700544318072048</v>
+        <v>2.700346521088534</v>
       </c>
       <c r="C24">
-        <v>1.00752924632576</v>
+        <v>1.006284176044147</v>
       </c>
       <c r="D24">
-        <v>0.3027810704379306</v>
+        <v>0.3027582644496079</v>
       </c>
       <c r="E24">
-        <v>0.07495543463320686</v>
+        <v>0.07499659914557455</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.757276168222688</v>
+        <v>1.227844066362309</v>
       </c>
       <c r="H24">
-        <v>2.737251811353246</v>
+        <v>2.520842959190787</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.729354964137997</v>
       </c>
       <c r="J24">
-        <v>0.8538419906001167</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2608949811719441</v>
+        <v>0.8534770331926609</v>
       </c>
       <c r="L24">
-        <v>0.8636212186209562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2607988081288823</v>
+      </c>
+      <c r="M24">
+        <v>0.8634677198582068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.162426005614975</v>
+        <v>2.162381217831864</v>
       </c>
       <c r="C25">
-        <v>0.8042835706364997</v>
+        <v>0.8033151010536983</v>
       </c>
       <c r="D25">
-        <v>0.2427063973178321</v>
+        <v>0.2426946012430165</v>
       </c>
       <c r="E25">
-        <v>0.06298752375647254</v>
+        <v>0.06302344231197665</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.13195297171228</v>
+        <v>1.014258207858177</v>
       </c>
       <c r="H25">
-        <v>2.311689631405201</v>
+        <v>2.111501812448708</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.305184803059802</v>
       </c>
       <c r="J25">
-        <v>0.6830367033828608</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2107831300145264</v>
+        <v>0.6827763389634285</v>
       </c>
       <c r="L25">
-        <v>0.6927565775478968</v>
+        <v>0.2107090089710724</v>
+      </c>
+      <c r="M25">
+        <v>0.6926567279760221</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.782576990056924</v>
+        <v>3.003122414373024</v>
       </c>
       <c r="C2">
-        <v>0.6606203420581096</v>
+        <v>0.7271347792008953</v>
       </c>
       <c r="D2">
-        <v>0.2004157112373406</v>
+        <v>0.3442380403910619</v>
       </c>
       <c r="E2">
-        <v>0.05468304150838676</v>
+        <v>0.09777842613426557</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8653806382320539</v>
+        <v>0.0008250101651772171</v>
       </c>
       <c r="H2">
-        <v>1.826975012635643</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.010540622383701</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02745024506475424</v>
       </c>
       <c r="K2">
-        <v>0.5624122138320899</v>
+        <v>0.8410574886661806</v>
       </c>
       <c r="L2">
-        <v>0.175617382319647</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5724749922025865</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.9038603159724587</v>
+      </c>
+      <c r="N2">
+        <v>1.973865144226721</v>
+      </c>
+      <c r="O2">
+        <v>2.399311056397238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.532533384765031</v>
+        <v>2.61949424789799</v>
       </c>
       <c r="C3">
-        <v>0.566925585583391</v>
+        <v>0.6311591112495307</v>
       </c>
       <c r="D3">
-        <v>0.172649003130374</v>
+        <v>0.3168280766739571</v>
       </c>
       <c r="E3">
-        <v>0.04925879488692075</v>
+        <v>0.09152430918926768</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7684094824286092</v>
+        <v>0.000834829985196232</v>
       </c>
       <c r="H3">
-        <v>1.642127060859821</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.819224155192273</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02672478610219819</v>
       </c>
       <c r="K3">
-        <v>0.4832324234430629</v>
+        <v>0.7326692670832955</v>
       </c>
       <c r="L3">
-        <v>0.1526657556558746</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.493584423225542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7970356719076648</v>
+      </c>
+      <c r="N3">
+        <v>1.969553467964971</v>
+      </c>
+      <c r="O3">
+        <v>2.218030705987715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.381841120383854</v>
+        <v>2.389340707514521</v>
       </c>
       <c r="C4">
-        <v>0.5105451598357718</v>
+        <v>0.5736224977529503</v>
       </c>
       <c r="D4">
-        <v>0.1559446113396348</v>
+        <v>0.3006330428037813</v>
       </c>
       <c r="E4">
-        <v>0.04602133077768045</v>
+        <v>0.08785675078778254</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7104351683829151</v>
+        <v>0.000841005900354587</v>
       </c>
       <c r="H4">
-        <v>1.531845246462495</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.705129531263182</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02631833258799254</v>
       </c>
       <c r="K4">
-        <v>0.4355348270979817</v>
+        <v>0.6676547264911434</v>
       </c>
       <c r="L4">
-        <v>0.138902119303232</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4461456148921741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.7331573309327197</v>
+      </c>
+      <c r="N4">
+        <v>1.969377581027402</v>
+      </c>
+      <c r="O4">
+        <v>2.111533763188575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.321041043163945</v>
+        <v>2.29673903903489</v>
       </c>
       <c r="C5">
-        <v>0.4878139725469168</v>
+        <v>0.5504803883329146</v>
       </c>
       <c r="D5">
-        <v>0.1492117586785611</v>
+        <v>0.2941782787181921</v>
       </c>
       <c r="E5">
-        <v>0.04472283429604218</v>
+        <v>0.08640188701599172</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6871548676139128</v>
+        <v>0.000843561740336856</v>
       </c>
       <c r="H5">
-        <v>1.487617276785656</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.659383328010605</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02616186510828555</v>
       </c>
       <c r="K5">
-        <v>0.4162942735921433</v>
+        <v>0.6414983564233694</v>
       </c>
       <c r="L5">
-        <v>0.1333652568755959</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4270308041614825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.7075069456825815</v>
+      </c>
+      <c r="N5">
+        <v>1.969883874629517</v>
+      </c>
+      <c r="O5">
+        <v>2.069226181874456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.310979097997517</v>
+        <v>2.281429694388407</v>
       </c>
       <c r="C6">
-        <v>0.4840530107659333</v>
+        <v>0.5466547971081752</v>
       </c>
       <c r="D6">
-        <v>0.1480979243518448</v>
+        <v>0.2931148119342311</v>
       </c>
       <c r="E6">
-        <v>0.04450840428246394</v>
+        <v>0.08616260440745194</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6833086575783653</v>
+        <v>0.0008439885599220427</v>
       </c>
       <c r="H6">
-        <v>1.480313668929952</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.651829640135404</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02613641989700888</v>
       </c>
       <c r="K6">
-        <v>0.4131103219090235</v>
+        <v>0.6371741615397681</v>
       </c>
       <c r="L6">
-        <v>0.1324499143140159</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4238689521937644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.7032693282393296</v>
+      </c>
+      <c r="N6">
+        <v>1.970001657341825</v>
+      </c>
+      <c r="O6">
+        <v>2.062263658858825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.381018817773054</v>
+        <v>2.388087251847878</v>
       </c>
       <c r="C7">
-        <v>0.5102376656694503</v>
+        <v>0.5733092194089124</v>
       </c>
       <c r="D7">
-        <v>0.1558535242375143</v>
+        <v>0.3005454236729577</v>
       </c>
       <c r="E7">
-        <v>0.04600373786718848</v>
+        <v>0.08783697387317346</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7101198681530576</v>
+        <v>0.0008410402080316312</v>
       </c>
       <c r="H7">
-        <v>1.531246006932818</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.704509678126456</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0263161860994181</v>
       </c>
       <c r="K7">
-        <v>0.4352745894473244</v>
+        <v>0.6673006667761427</v>
       </c>
       <c r="L7">
-        <v>0.138827169466758</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4458869911363053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.7328099227677782</v>
+      </c>
+      <c r="N7">
+        <v>1.969382123428176</v>
+      </c>
+      <c r="O7">
+        <v>2.110958920663819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.69570707937217</v>
+        <v>2.869620623838216</v>
       </c>
       <c r="C8">
-        <v>0.6280477935302429</v>
+        <v>0.6937243308290419</v>
       </c>
       <c r="D8">
-        <v>0.1907624747827299</v>
+        <v>0.3346459849239949</v>
       </c>
       <c r="E8">
-        <v>0.0527918088556163</v>
+        <v>0.09558387827656034</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8315888041906589</v>
+        <v>0.000828367059817905</v>
       </c>
       <c r="H8">
-        <v>1.762511484003099</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.943810998104212</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02719161354576549</v>
       </c>
       <c r="K8">
-        <v>0.5348983926313835</v>
+        <v>0.8033355463477534</v>
       </c>
       <c r="L8">
-        <v>0.1676286382351861</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5450439765546804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8666401012856255</v>
+      </c>
+      <c r="N8">
+        <v>1.971837993665716</v>
+      </c>
+      <c r="O8">
+        <v>2.335732201642713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.340649053522384</v>
+        <v>3.865306124863025</v>
       </c>
       <c r="C9">
-        <v>0.8704594396319294</v>
+        <v>0.9432395805658587</v>
       </c>
       <c r="D9">
-        <v>0.2625766655929311</v>
+        <v>0.4073043860619805</v>
       </c>
       <c r="E9">
-        <v>0.06697274568683298</v>
+        <v>0.1123310172781302</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.084710303451388</v>
+        <v>0.000804563296808096</v>
       </c>
       <c r="H9">
-        <v>2.246394123116573</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.444931697696504</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02924995682955966</v>
       </c>
       <c r="K9">
-        <v>0.7393134267221484</v>
+        <v>1.084766630134794</v>
       </c>
       <c r="L9">
-        <v>0.2272618183409065</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7491904557171551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.145211810317079</v>
+      </c>
+      <c r="N9">
+        <v>1.998471029349972</v>
+      </c>
+      <c r="O9">
+        <v>2.82070399289745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.840007250436315</v>
+        <v>4.641865523873321</v>
       </c>
       <c r="C10">
-        <v>1.059149591957492</v>
+        <v>1.138447571988536</v>
       </c>
       <c r="D10">
-        <v>0.3183811769829816</v>
+        <v>0.4654107401333647</v>
       </c>
       <c r="E10">
-        <v>0.07812943500415059</v>
+        <v>0.1258811768189823</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.283744144894712</v>
+        <v>0.0007875328663284287</v>
       </c>
       <c r="H10">
-        <v>2.628152347211682</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.840595915904899</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03102206641705507</v>
       </c>
       <c r="K10">
-        <v>0.8978359314635185</v>
+        <v>1.304430655369615</v>
       </c>
       <c r="L10">
-        <v>0.2738654938476728</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9079059438594967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.363771809197857</v>
+      </c>
+      <c r="N10">
+        <v>2.03485793226389</v>
+      </c>
+      <c r="O10">
+        <v>3.213566582767498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.074997086124995</v>
+        <v>5.00855237877397</v>
       </c>
       <c r="C11">
-        <v>1.148266522939821</v>
+        <v>1.23083030116004</v>
       </c>
       <c r="D11">
-        <v>0.3446928145338006</v>
+        <v>0.493187814013794</v>
       </c>
       <c r="E11">
-        <v>0.08341977757102015</v>
+        <v>0.1323950438640153</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.378179022049267</v>
+        <v>0.0007798372155357443</v>
       </c>
       <c r="H11">
-        <v>2.809574295267851</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3.028700333129791</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03189837140105567</v>
       </c>
       <c r="K11">
-        <v>0.9725151515575163</v>
+        <v>1.40821263835592</v>
       </c>
       <c r="L11">
-        <v>0.2959031469915416</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9827536876352454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.467295179126182</v>
+      </c>
+      <c r="N11">
+        <v>2.056001782652373</v>
+      </c>
+      <c r="O11">
+        <v>3.402782232810807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.165333437512686</v>
+        <v>5.149696835792611</v>
       </c>
       <c r="C12">
-        <v>1.18258206471512</v>
+        <v>1.266427307016727</v>
       </c>
       <c r="D12">
-        <v>0.3548155958857535</v>
+        <v>0.5039309210603733</v>
       </c>
       <c r="E12">
-        <v>0.08545938674233966</v>
+        <v>0.1349197935945234</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.414603018115429</v>
+        <v>0.0007769258202831458</v>
       </c>
       <c r="H12">
-        <v>2.879592560050298</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.101308696297423</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03224165298310311</v>
       </c>
       <c r="K12">
-        <v>1.001238087231641</v>
+        <v>1.448170648072363</v>
       </c>
       <c r="L12">
-        <v>0.304391429772906</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.01155139682087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.507192948928676</v>
+      </c>
+      <c r="N12">
+        <v>2.064762186002923</v>
+      </c>
+      <c r="O12">
+        <v>3.476196632414741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.145813837612195</v>
+        <v>5.119190787063133</v>
       </c>
       <c r="C13">
-        <v>1.175164577508326</v>
+        <v>1.258731818086119</v>
       </c>
       <c r="D13">
-        <v>0.3526279379737929</v>
+        <v>0.5016066641894952</v>
       </c>
       <c r="E13">
-        <v>0.08501841349819017</v>
+        <v>0.1343733228366517</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.406727118643857</v>
+        <v>0.0007775527992507646</v>
       </c>
       <c r="H13">
-        <v>2.864450705270542</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.085606222575308</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03216718830029919</v>
       </c>
       <c r="K13">
-        <v>0.9950310464236907</v>
+        <v>1.439533882819305</v>
       </c>
       <c r="L13">
-        <v>0.3025565618564841</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.005327778690031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.498567434653168</v>
+      </c>
+      <c r="N13">
+        <v>2.062840305265638</v>
+      </c>
+      <c r="O13">
+        <v>3.460302682331644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.082400622199032</v>
+        <v>5.020116312401058</v>
       </c>
       <c r="C14">
-        <v>1.151077668191306</v>
+        <v>1.233745967173263</v>
       </c>
       <c r="D14">
-        <v>0.3455222689853201</v>
+        <v>0.4940669594742815</v>
       </c>
       <c r="E14">
-        <v>0.08358681704629589</v>
+        <v>0.1326015433780015</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.381161694900243</v>
+        <v>0.0007795976666449791</v>
       </c>
       <c r="H14">
-        <v>2.815307059436378</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3.034644940290562</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03192637550673538</v>
       </c>
       <c r="K14">
-        <v>0.9748688459230124</v>
+        <v>1.411486167971859</v>
       </c>
       <c r="L14">
-        <v>0.2965984724353774</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9851133189295496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.470562980792081</v>
+      </c>
+      <c r="N14">
+        <v>2.056706812209768</v>
+      </c>
+      <c r="O14">
+        <v>3.408785165332631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.043741401878947</v>
+        <v>4.959739880155894</v>
       </c>
       <c r="C15">
-        <v>1.136400981891711</v>
+        <v>1.218524529420336</v>
       </c>
       <c r="D15">
-        <v>0.3411914068214799</v>
+        <v>0.4894789237794726</v>
       </c>
       <c r="E15">
-        <v>0.08271481865034858</v>
+        <v>0.1315240941085953</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.365591905397736</v>
+        <v>0.0007808504193774162</v>
       </c>
       <c r="H15">
-        <v>2.785383302527521</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3.003615855127137</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03178040488837297</v>
       </c>
       <c r="K15">
-        <v>0.9625790926729962</v>
+        <v>1.394395180571166</v>
       </c>
       <c r="L15">
-        <v>0.2929683406927239</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9727929576212588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.453503485879153</v>
+      </c>
+      <c r="N15">
+        <v>2.05305105213364</v>
+      </c>
+      <c r="O15">
+        <v>3.377466912193086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.824826090381066</v>
+        <v>4.618201156855093</v>
       </c>
       <c r="C16">
-        <v>1.053399558574739</v>
+        <v>1.132490294243155</v>
       </c>
       <c r="D16">
-        <v>0.3166824124204908</v>
+        <v>0.4636250539046785</v>
       </c>
       <c r="E16">
-        <v>0.07778846577645737</v>
+        <v>0.1254631582386025</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.277659451342004</v>
+        <v>0.0007880364526684932</v>
       </c>
       <c r="H16">
-        <v>2.616468682725554</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.82848339777928</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03096632075898142</v>
       </c>
       <c r="K16">
-        <v>0.8930132141504998</v>
+        <v>1.297734337208482</v>
       </c>
       <c r="L16">
-        <v>0.2724439924058615</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9030737888142397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.357097513149512</v>
+      </c>
+      <c r="N16">
+        <v>2.0335761786543</v>
+      </c>
+      <c r="O16">
+        <v>3.201432897779924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.692683172027387</v>
+        <v>4.41235446477873</v>
       </c>
       <c r="C17">
-        <v>1.003385497129159</v>
+        <v>1.080693827837024</v>
       </c>
       <c r="D17">
-        <v>0.301901350236605</v>
+        <v>0.4481295848017908</v>
       </c>
       <c r="E17">
-        <v>0.07482495951043333</v>
+        <v>0.1218397437421572</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.224781816641155</v>
+        <v>0.0007924549763649313</v>
       </c>
       <c r="H17">
-        <v>2.5149663572968</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.723263539360403</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03048577684480236</v>
       </c>
       <c r="K17">
-        <v>0.8510435386450439</v>
+        <v>1.239492368763322</v>
       </c>
       <c r="L17">
-        <v>0.2600825215943203</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8610303806296287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.299076073894184</v>
+      </c>
+      <c r="N17">
+        <v>2.022866926667717</v>
+      </c>
+      <c r="O17">
+        <v>3.096298881908751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.617399622461903</v>
+        <v>4.29519625599778</v>
       </c>
       <c r="C18">
-        <v>0.9749208868146013</v>
+        <v>1.051232246104973</v>
       </c>
       <c r="D18">
-        <v>0.2934850510775675</v>
+        <v>0.4393413950425042</v>
       </c>
       <c r="E18">
-        <v>0.07314031387242181</v>
+        <v>0.1197880488998422</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.194727395073301</v>
+        <v>0.0007950015641788857</v>
       </c>
       <c r="H18">
-        <v>2.45730136888622</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.663493328450244</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.03021589245102163</v>
       </c>
       <c r="K18">
-        <v>0.8271401742784974</v>
+        <v>1.206348981555664</v>
       </c>
       <c r="L18">
-        <v>0.2530498052067855</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8370922608721543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.266082279916276</v>
+      </c>
+      <c r="N18">
+        <v>2.017133015075999</v>
+      </c>
+      <c r="O18">
+        <v>3.036799699604202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.592027542225708</v>
+        <v>4.255731345157017</v>
       </c>
       <c r="C19">
-        <v>0.9653324436446837</v>
+        <v>1.041311046010662</v>
       </c>
       <c r="D19">
-        <v>0.2906493720156078</v>
+        <v>0.4363863542529032</v>
       </c>
       <c r="E19">
-        <v>0.07257318692218817</v>
+        <v>0.1190987263804324</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.18461030573701</v>
+        <v>0.0007958648131818051</v>
       </c>
       <c r="H19">
-        <v>2.437894386402405</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.643378986199181</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.03012559468795573</v>
       </c>
       <c r="K19">
-        <v>0.8190854402221532</v>
+        <v>1.195185417597997</v>
       </c>
       <c r="L19">
-        <v>0.2506812846522521</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8290270888430911</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.254973197965271</v>
+      </c>
+      <c r="N19">
+        <v>2.015262122438813</v>
+      </c>
+      <c r="O19">
+        <v>3.01681401787998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.706673814386363</v>
+        <v>4.434136511650422</v>
       </c>
       <c r="C20">
-        <v>1.008677653370484</v>
+        <v>1.086172792328</v>
       </c>
       <c r="D20">
-        <v>0.3034658077196326</v>
+        <v>0.4497660184790675</v>
       </c>
       <c r="E20">
-        <v>0.07513833563303862</v>
+        <v>0.1222220567890133</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.230372834499661</v>
+        <v>0.0007919841132980217</v>
       </c>
       <c r="H20">
-        <v>2.525695936413456</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.734385383596575</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.03053624847225933</v>
       </c>
       <c r="K20">
-        <v>0.8554863049490535</v>
+        <v>1.245654796798277</v>
       </c>
       <c r="L20">
-        <v>0.2613902703504678</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8654802075388801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.305212653516747</v>
+      </c>
+      <c r="N20">
+        <v>2.023962248876359</v>
+      </c>
+      <c r="O20">
+        <v>3.107388364158112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.100987987224642</v>
+        <v>5.049151659235577</v>
       </c>
       <c r="C21">
-        <v>1.158136283883948</v>
+        <v>1.241067396517963</v>
       </c>
       <c r="D21">
-        <v>0.3476048297168433</v>
+        <v>0.4962751863721167</v>
       </c>
       <c r="E21">
-        <v>0.08400628065944105</v>
+        <v>0.1331203132790257</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.388651962703278</v>
+        <v>0.0007789970046666355</v>
       </c>
       <c r="H21">
-        <v>2.829704207401477</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.049574282958915</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.03199678561558272</v>
       </c>
       <c r="K21">
-        <v>0.9807782818314763</v>
+        <v>1.419705695626831</v>
       </c>
       <c r="L21">
-        <v>0.2983444253745802</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9910378140477647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.478768755634079</v>
+      </c>
+      <c r="N21">
+        <v>2.058487093147761</v>
+      </c>
+      <c r="O21">
+        <v>3.423867060801399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.366700602690742</v>
+        <v>5.464645270625624</v>
       </c>
       <c r="C22">
-        <v>1.2591894025133</v>
+        <v>1.345934915963596</v>
       </c>
       <c r="D22">
-        <v>0.3773949866589987</v>
+        <v>0.5279985980984065</v>
       </c>
       <c r="E22">
-        <v>0.09001650493112479</v>
+        <v>0.1405860903929579</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.496024876810139</v>
+        <v>0.0007705226896161522</v>
       </c>
       <c r="H22">
-        <v>3.036189976273079</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.26371929739399</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03301882671612688</v>
       </c>
       <c r="K22">
-        <v>1.06529287642482</v>
+        <v>1.537354110592943</v>
       </c>
       <c r="L22">
-        <v>0.3233434640062072</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.075789329440418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.596315006747687</v>
+      </c>
+      <c r="N22">
+        <v>2.085498982412787</v>
+      </c>
+      <c r="O22">
+        <v>3.641125486975398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.224068102768911</v>
+        <v>5.241515658844037</v>
       </c>
       <c r="C23">
-        <v>1.20491034671096</v>
+        <v>1.289595603505234</v>
       </c>
       <c r="D23">
-        <v>0.3613994527356681</v>
+        <v>0.5109341420489955</v>
       </c>
       <c r="E23">
-        <v>0.08678712397028221</v>
+        <v>0.1365671628775864</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.438319765830727</v>
+        <v>0.0007750460811281125</v>
       </c>
       <c r="H23">
-        <v>2.9251955823174</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.148601755034548</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03246666254186081</v>
       </c>
       <c r="K23">
-        <v>1.019917397178858</v>
+        <v>1.474167747402191</v>
       </c>
       <c r="L23">
-        <v>0.3099150052491737</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.030281910784993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.533161947924086</v>
+      </c>
+      <c r="N23">
+        <v>2.070640272593351</v>
+      </c>
+      <c r="O23">
+        <v>3.524122640736238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.700346521088534</v>
+        <v>4.42428518102281</v>
       </c>
       <c r="C24">
-        <v>1.006284176044147</v>
+        <v>1.083694772653132</v>
       </c>
       <c r="D24">
-        <v>0.3027582644496079</v>
+        <v>0.449025814206351</v>
       </c>
       <c r="E24">
-        <v>0.07499659914557455</v>
+        <v>0.1220491156584096</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.227844066362309</v>
+        <v>0.0007921969703957701</v>
       </c>
       <c r="H24">
-        <v>2.520842959190787</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.729354964137997</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03051341045590306</v>
       </c>
       <c r="K24">
-        <v>0.8534770331926609</v>
+        <v>1.242867709495613</v>
       </c>
       <c r="L24">
-        <v>0.2607988081288823</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8634677198582068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.302437181434854</v>
+      </c>
+      <c r="N24">
+        <v>2.023465743095699</v>
+      </c>
+      <c r="O24">
+        <v>3.102371888178027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.162381217831864</v>
+        <v>3.589138215955302</v>
       </c>
       <c r="C25">
-        <v>0.8033151010536983</v>
+        <v>0.8739515979000885</v>
       </c>
       <c r="D25">
-        <v>0.2426946012430165</v>
+        <v>0.3869147272054363</v>
       </c>
       <c r="E25">
-        <v>0.06302344231197665</v>
+        <v>0.1076055554729578</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.014258207858177</v>
+        <v>0.0008109079336548995</v>
       </c>
       <c r="H25">
-        <v>2.111501812448708</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.305184803059802</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02865163236848289</v>
       </c>
       <c r="K25">
-        <v>0.6827763389634285</v>
+        <v>1.00668494599087</v>
       </c>
       <c r="L25">
-        <v>0.2107090089710724</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6926567279760221</v>
+        <v>1.067736928773904</v>
+      </c>
+      <c r="N25">
+        <v>1.988595630619585</v>
+      </c>
+      <c r="O25">
+        <v>2.683859349582164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.003122414373024</v>
+        <v>2.678906243685788</v>
       </c>
       <c r="C2">
-        <v>0.7271347792008953</v>
+        <v>0.3427275757791932</v>
       </c>
       <c r="D2">
-        <v>0.3442380403910619</v>
+        <v>0.2026908738840802</v>
       </c>
       <c r="E2">
-        <v>0.09777842613426557</v>
+        <v>0.04698177213594157</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008250101651772171</v>
+        <v>0.4719938374647654</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3263179528173055</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02745024506475424</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8410574886661806</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.304788188120753</v>
       </c>
       <c r="M2">
-        <v>0.9038603159724587</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.973865144226721</v>
+        <v>0.6803628659248204</v>
       </c>
       <c r="O2">
-        <v>2.399311056397238</v>
+        <v>1.63416738393795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.61949424789799</v>
+        <v>2.327958341515796</v>
       </c>
       <c r="C3">
-        <v>0.6311591112495307</v>
+        <v>0.316163590525349</v>
       </c>
       <c r="D3">
-        <v>0.3168280766739571</v>
+        <v>0.1757187781476404</v>
       </c>
       <c r="E3">
-        <v>0.09152430918926768</v>
+        <v>0.04613219713307615</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000834829985196232</v>
+        <v>0.4303682107719169</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3131374754574807</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02672478610219819</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7326692670832955</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2674152468573965</v>
       </c>
       <c r="M3">
-        <v>0.7970356719076648</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.969553467964971</v>
+        <v>0.6999383334081912</v>
       </c>
       <c r="O3">
-        <v>2.218030705987715</v>
+        <v>1.517910834236943</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.389340707514521</v>
+        <v>2.113039974072024</v>
       </c>
       <c r="C4">
-        <v>0.5736224977529503</v>
+        <v>0.2998239555028448</v>
       </c>
       <c r="D4">
-        <v>0.3006330428037813</v>
+        <v>0.1593175485542559</v>
       </c>
       <c r="E4">
-        <v>0.08785675078778254</v>
+        <v>0.04570861260294024</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000841005900354587</v>
+        <v>0.4059014366559666</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3057106974850541</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02631833258799254</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6676547264911434</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.244716529469045</v>
       </c>
       <c r="M4">
-        <v>0.7331573309327197</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.969377581027402</v>
+        <v>0.7129606704715101</v>
       </c>
       <c r="O4">
-        <v>2.111533763188575</v>
+        <v>1.450225532641923</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.29673903903489</v>
+        <v>2.025568053754341</v>
       </c>
       <c r="C5">
-        <v>0.5504803883329146</v>
+        <v>0.2931569510230787</v>
       </c>
       <c r="D5">
-        <v>0.2941782787181921</v>
+        <v>0.1526691909173934</v>
       </c>
       <c r="E5">
-        <v>0.08640188701599172</v>
+        <v>0.04555961052377988</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000843561740336856</v>
+        <v>0.3961860612402717</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3028428904980274</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02616186510828555</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6414983564233694</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2355228316340003</v>
       </c>
       <c r="M5">
-        <v>0.7075069456825815</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.969883874629517</v>
+        <v>0.718511611954689</v>
       </c>
       <c r="O5">
-        <v>2.069226181874456</v>
+        <v>1.423513073663401</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.281429694388407</v>
+        <v>2.011049067330362</v>
       </c>
       <c r="C6">
-        <v>0.5466547971081752</v>
+        <v>0.2920493575550154</v>
       </c>
       <c r="D6">
-        <v>0.2931148119342311</v>
+        <v>0.1515672284971146</v>
       </c>
       <c r="E6">
-        <v>0.08616260440745194</v>
+        <v>0.04553626530132249</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008439885599220427</v>
+        <v>0.3945876843695544</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3023760268207099</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02613641989700888</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6371741615397681</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2339994438448798</v>
       </c>
       <c r="M6">
-        <v>0.7032693282393296</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.970001657341825</v>
+        <v>0.7194478680674621</v>
       </c>
       <c r="O6">
-        <v>2.062263658858825</v>
+        <v>1.419128339085745</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.388087251847878</v>
+        <v>2.111859897808358</v>
       </c>
       <c r="C7">
-        <v>0.5733092194089124</v>
+        <v>0.2997340776554154</v>
       </c>
       <c r="D7">
-        <v>0.3005454236729577</v>
+        <v>0.1592277499312331</v>
       </c>
       <c r="E7">
-        <v>0.08783697387317346</v>
+        <v>0.04570650885060523</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008410402080316312</v>
+        <v>0.4057694040546238</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3056713901425638</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0263161860994181</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6673006667761427</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2445923204591622</v>
       </c>
       <c r="M7">
-        <v>0.7328099227677782</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.969382123428176</v>
+        <v>0.7130345537191616</v>
       </c>
       <c r="O7">
-        <v>2.110958920663819</v>
+        <v>1.449861833776055</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.869620623838216</v>
+        <v>2.55776152524362</v>
       </c>
       <c r="C8">
-        <v>0.6937243308290419</v>
+        <v>0.3335736725488658</v>
       </c>
       <c r="D8">
-        <v>0.3346459849239949</v>
+        <v>0.1933547096566031</v>
       </c>
       <c r="E8">
-        <v>0.09558387827656034</v>
+        <v>0.04666784201816476</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000828367059817905</v>
+        <v>0.4574027506051124</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.321629616992837</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02719161354576549</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8033355463477534</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2918465590014563</v>
       </c>
       <c r="M8">
-        <v>0.8666401012856255</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.971837993665716</v>
+        <v>0.6868994096581318</v>
       </c>
       <c r="O8">
-        <v>2.335732201642713</v>
+        <v>1.593277944556718</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.865306124863025</v>
+        <v>3.438290287587108</v>
       </c>
       <c r="C9">
-        <v>0.9432395805658587</v>
+        <v>0.3997595733221146</v>
       </c>
       <c r="D9">
-        <v>0.4073043860619805</v>
+        <v>0.2617814979714836</v>
       </c>
       <c r="E9">
-        <v>0.1123310172781302</v>
+        <v>0.0493808229694821</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000804563296808096</v>
+        <v>0.5682490756547338</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3586322423439441</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02924995682955966</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.084766630134794</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3867867027590961</v>
       </c>
       <c r="M9">
-        <v>1.145211810317079</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.998471029349972</v>
+        <v>0.6439857246123921</v>
       </c>
       <c r="O9">
-        <v>2.82070399289745</v>
+        <v>1.906712765442705</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.641865523873321</v>
+        <v>4.091436985643952</v>
       </c>
       <c r="C10">
-        <v>1.138447571988536</v>
+        <v>0.448374554380365</v>
       </c>
       <c r="D10">
-        <v>0.4654107401333647</v>
+        <v>0.3133247221287405</v>
       </c>
       <c r="E10">
-        <v>0.1258811768189823</v>
+        <v>0.05195199737861778</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007875328663284287</v>
+        <v>0.6569219477509449</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3899272695157379</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03102206641705507</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.304430655369615</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4583817919457545</v>
       </c>
       <c r="M10">
-        <v>1.363771809197857</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.03485793226389</v>
+        <v>0.6180992960705041</v>
       </c>
       <c r="O10">
-        <v>3.213566582767498</v>
+        <v>2.160876762906895</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.00855237877397</v>
+        <v>4.39052521000815</v>
       </c>
       <c r="C11">
-        <v>1.23083030116004</v>
+        <v>0.4705116489503212</v>
       </c>
       <c r="D11">
-        <v>0.493187814013794</v>
+        <v>0.337133293352764</v>
       </c>
       <c r="E11">
-        <v>0.1323950438640153</v>
+        <v>0.05326456324381468</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007798372155357443</v>
+        <v>0.6991641385437504</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4052072086844447</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03189837140105567</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.40821263835592</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4914617842648283</v>
       </c>
       <c r="M11">
-        <v>1.467295179126182</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2.056001782652373</v>
+        <v>0.6076817231890388</v>
       </c>
       <c r="O11">
-        <v>3.402782232810807</v>
+        <v>2.282707877016747</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.149696835792611</v>
+        <v>4.504118597223339</v>
       </c>
       <c r="C12">
-        <v>1.266427307016727</v>
+        <v>0.4788995962985325</v>
       </c>
       <c r="D12">
-        <v>0.5039309210603733</v>
+        <v>0.3462084368177472</v>
       </c>
       <c r="E12">
-        <v>0.1349197935945234</v>
+        <v>0.05378370246283026</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007769258202831458</v>
+        <v>0.7154638419861357</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4111569768172956</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03224165298310311</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.448170648072363</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5040715405312568</v>
       </c>
       <c r="M12">
-        <v>1.507192948928676</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.064762186002923</v>
+        <v>0.603944282706216</v>
       </c>
       <c r="O12">
-        <v>3.476196632414741</v>
+        <v>2.329826903483649</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.119190787063133</v>
+        <v>4.479638447036962</v>
       </c>
       <c r="C13">
-        <v>1.258731818086119</v>
+        <v>0.4770928411641648</v>
       </c>
       <c r="D13">
-        <v>0.5016066641894952</v>
+        <v>0.3442511787533675</v>
       </c>
       <c r="E13">
-        <v>0.1343733228366517</v>
+        <v>0.05367088791063068</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007775527992507646</v>
+        <v>0.7119394145378237</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4098680860278563</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03216718830029919</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.439533882819305</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5013519481241957</v>
       </c>
       <c r="M13">
-        <v>1.498567434653168</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.062840305265638</v>
+        <v>0.6047397774368619</v>
       </c>
       <c r="O13">
-        <v>3.460302682331644</v>
+        <v>2.319633678178064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.020116312401058</v>
+        <v>4.399863575529139</v>
       </c>
       <c r="C14">
-        <v>1.233745967173263</v>
+        <v>0.4712016160844996</v>
       </c>
       <c r="D14">
-        <v>0.4940669594742815</v>
+        <v>0.3378786769677902</v>
       </c>
       <c r="E14">
-        <v>0.1326015433780015</v>
+        <v>0.05330682100283468</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007795976666449791</v>
+        <v>0.7004988644443131</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4056933401024736</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03192637550673538</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.411486167971859</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4924974738348169</v>
       </c>
       <c r="M14">
-        <v>1.470562980792081</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2.056706812209768</v>
+        <v>0.6073700110597784</v>
       </c>
       <c r="O14">
-        <v>3.408785165332631</v>
+        <v>2.286564115376308</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.959739880155894</v>
+        <v>4.351044430472996</v>
       </c>
       <c r="C15">
-        <v>1.218524529420336</v>
+        <v>0.4675937976225555</v>
       </c>
       <c r="D15">
-        <v>0.4894789237794726</v>
+        <v>0.3339832942997134</v>
       </c>
       <c r="E15">
-        <v>0.1315240941085953</v>
+        <v>0.05308674517348777</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007808504193774162</v>
+        <v>0.6935316404849772</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4031579100357874</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03178040488837297</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.394395180571166</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.487084969640037</v>
       </c>
       <c r="M15">
-        <v>1.453503485879153</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.05305105213364</v>
+        <v>0.6090084989284605</v>
       </c>
       <c r="O15">
-        <v>3.377466912193086</v>
+        <v>2.26643905248136</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.618201156855093</v>
+        <v>4.071934836624621</v>
       </c>
       <c r="C16">
-        <v>1.132490294243155</v>
+        <v>0.4469284471005892</v>
       </c>
       <c r="D16">
-        <v>0.4636250539046785</v>
+        <v>0.3117766664809523</v>
       </c>
       <c r="E16">
-        <v>0.1254631582386025</v>
+        <v>0.05186922394027071</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007880364526684932</v>
+        <v>0.6542021271709189</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3889508224418705</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03096632075898142</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.297734337208482</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4562310235762652</v>
       </c>
       <c r="M16">
-        <v>1.357097513149512</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.0335761786543</v>
+        <v>0.6188084601721897</v>
       </c>
       <c r="O16">
-        <v>3.201432897779924</v>
+        <v>2.153047422397634</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.41235446477873</v>
+        <v>3.901250088230199</v>
       </c>
       <c r="C17">
-        <v>1.080693827837024</v>
+        <v>0.4342578677790812</v>
       </c>
       <c r="D17">
-        <v>0.4481295848017908</v>
+        <v>0.2982512528165557</v>
       </c>
       <c r="E17">
-        <v>0.1218397437421572</v>
+        <v>0.05115998823716694</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007924549763649313</v>
+        <v>0.6305829197311681</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3805118376531311</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03048577684480236</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.239492368763322</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.437440614270372</v>
       </c>
       <c r="M17">
-        <v>1.299076073894184</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.022866926667717</v>
+        <v>0.6251766856627796</v>
       </c>
       <c r="O17">
-        <v>3.096298881908751</v>
+        <v>2.085138737787616</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.29519625599778</v>
+        <v>3.803258660967174</v>
       </c>
       <c r="C18">
-        <v>1.051232246104973</v>
+        <v>0.4269720180874401</v>
       </c>
       <c r="D18">
-        <v>0.4393413950425042</v>
+        <v>0.2905053256410213</v>
       </c>
       <c r="E18">
-        <v>0.1197880488998422</v>
+        <v>0.05076540882020275</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007950015641788857</v>
+        <v>0.617175130375756</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3757553252600161</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03021589245102163</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.206348981555664</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.426680351786473</v>
       </c>
       <c r="M18">
-        <v>1.266082279916276</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.017133015075999</v>
+        <v>0.628966592648176</v>
       </c>
       <c r="O18">
-        <v>3.036799699604202</v>
+        <v>2.046658183278851</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.255731345157017</v>
+        <v>3.770110173582623</v>
       </c>
       <c r="C19">
-        <v>1.041311046010662</v>
+        <v>0.4245054297981312</v>
       </c>
       <c r="D19">
-        <v>0.4363863542529032</v>
+        <v>0.2878882304372468</v>
       </c>
       <c r="E19">
-        <v>0.1190987263804324</v>
+        <v>0.05063405919125685</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007958648131818051</v>
+        <v>0.6126650767529895</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3741611799148785</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03012559468795573</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.195185417597997</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4230449865810471</v>
       </c>
       <c r="M19">
-        <v>1.254973197965271</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.015262122438813</v>
+        <v>0.6302712585423151</v>
       </c>
       <c r="O19">
-        <v>3.01681401787998</v>
+        <v>2.033726058866762</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.434136511650422</v>
+        <v>3.919400578392697</v>
       </c>
       <c r="C20">
-        <v>1.086172792328</v>
+        <v>0.4356064589818232</v>
       </c>
       <c r="D20">
-        <v>0.4497660184790675</v>
+        <v>0.2996875337752698</v>
       </c>
       <c r="E20">
-        <v>0.1222220567890133</v>
+        <v>0.05123409461296191</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007919841132980217</v>
+        <v>0.6330786615643973</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3814000101223201</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03053624847225933</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.245654796798277</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4394359038108604</v>
       </c>
       <c r="M20">
-        <v>1.305212653516747</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.023962248876359</v>
+        <v>0.6244855404434304</v>
       </c>
       <c r="O20">
-        <v>3.107388364158112</v>
+        <v>2.092307198957855</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.049151659235577</v>
+        <v>4.423285856397627</v>
       </c>
       <c r="C21">
-        <v>1.241067396517963</v>
+        <v>0.472931856410753</v>
       </c>
       <c r="D21">
-        <v>0.4962751863721167</v>
+        <v>0.3397487626408804</v>
       </c>
       <c r="E21">
-        <v>0.1331203132790257</v>
+        <v>0.05341314366094352</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007789970046666355</v>
+        <v>0.703850746855025</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4069150116792031</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03199678561558272</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.419705695626831</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4950959126244499</v>
       </c>
       <c r="M21">
-        <v>1.478768755634079</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.058487093147761</v>
+        <v>0.6065917159276637</v>
       </c>
       <c r="O21">
-        <v>3.423867060801399</v>
+        <v>2.296249974900803</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.464645270625624</v>
+        <v>4.75458492484745</v>
       </c>
       <c r="C22">
-        <v>1.345934915963596</v>
+        <v>0.4973569999914957</v>
       </c>
       <c r="D22">
-        <v>0.5279985980984065</v>
+        <v>0.3662808931867261</v>
       </c>
       <c r="E22">
-        <v>0.1405860903929579</v>
+        <v>0.05496688446664066</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007705226896161522</v>
+        <v>0.75188886429018</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4245510803569772</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03301882671612688</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.537354110592943</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5319622023464632</v>
       </c>
       <c r="M22">
-        <v>1.596315006747687</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.085498982412787</v>
+        <v>0.5961126249094519</v>
       </c>
       <c r="O22">
-        <v>3.641125486975398</v>
+        <v>2.435322628608446</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.241515658844037</v>
+        <v>4.577564783965784</v>
       </c>
       <c r="C23">
-        <v>1.289595603505234</v>
+        <v>0.4843173197522503</v>
       </c>
       <c r="D23">
-        <v>0.5109341420489955</v>
+        <v>0.3520855976147033</v>
       </c>
       <c r="E23">
-        <v>0.1365671628775864</v>
+        <v>0.05412522541444176</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007750460811281125</v>
+        <v>0.7260763423300176</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.415045750981804</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03246666254186081</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.474167747402191</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5122378362055571</v>
       </c>
       <c r="M23">
-        <v>1.533161947924086</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.070640272593351</v>
+        <v>0.6015900457590035</v>
       </c>
       <c r="O23">
-        <v>3.524122640736238</v>
+        <v>2.360535710269573</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.42428518102281</v>
+        <v>3.911194317369961</v>
       </c>
       <c r="C24">
-        <v>1.083694772653132</v>
+        <v>0.4349967652961766</v>
       </c>
       <c r="D24">
-        <v>0.449025814206351</v>
+        <v>0.2990380982221126</v>
       </c>
       <c r="E24">
-        <v>0.1220491156584096</v>
+        <v>0.05120055021567538</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007921969703957701</v>
+        <v>0.631949805622483</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3809981719172271</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03051341045590306</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.242867709495613</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4385337014550998</v>
       </c>
       <c r="M24">
-        <v>1.302437181434854</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.023465743095699</v>
+        <v>0.624797607142483</v>
       </c>
       <c r="O24">
-        <v>3.102371888178027</v>
+        <v>2.089064596917012</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.589138215955302</v>
+        <v>3.199182626137826</v>
       </c>
       <c r="C25">
-        <v>0.8739515979000885</v>
+        <v>0.3818639107245332</v>
       </c>
       <c r="D25">
-        <v>0.3869147272054363</v>
+        <v>0.2430741688904305</v>
       </c>
       <c r="E25">
-        <v>0.1076055554729578</v>
+        <v>0.0485509736954608</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008109079336548995</v>
+        <v>0.5370977813715712</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3479485587259461</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02865163236848289</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.00668494599087</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3608141756912886</v>
       </c>
       <c r="M25">
-        <v>1.067736928773904</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.988595630619585</v>
+        <v>0.6546469873161627</v>
       </c>
       <c r="O25">
-        <v>2.683859349582164</v>
+        <v>1.818051621296604</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.678906243685788</v>
+        <v>1.110744889959449</v>
       </c>
       <c r="C2">
-        <v>0.3427275757791932</v>
+        <v>0.2370466469056112</v>
       </c>
       <c r="D2">
-        <v>0.2026908738840802</v>
+        <v>0.07896879185899763</v>
       </c>
       <c r="E2">
-        <v>0.04698177213594157</v>
+        <v>0.1041169720498214</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4719938374647654</v>
+        <v>0.5314283454143123</v>
       </c>
       <c r="H2">
-        <v>0.3263179528173055</v>
+        <v>0.649162030729812</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.304788188120753</v>
+        <v>0.2078881262378616</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6803628659248204</v>
+        <v>1.109682608641549</v>
       </c>
       <c r="O2">
-        <v>1.63416738393795</v>
+        <v>2.330101827823086</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.327958341515796</v>
+        <v>1.007981929872017</v>
       </c>
       <c r="C3">
-        <v>0.316163590525349</v>
+        <v>0.2281235549205718</v>
       </c>
       <c r="D3">
-        <v>0.1757187781476404</v>
+        <v>0.07157096782734129</v>
       </c>
       <c r="E3">
-        <v>0.04613219713307615</v>
+        <v>0.1047645686840024</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4303682107719169</v>
+        <v>0.5260900438135394</v>
       </c>
       <c r="H3">
-        <v>0.3131374754574807</v>
+        <v>0.6510438205903029</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2674152468573965</v>
+        <v>0.1985677997574413</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6999383334081912</v>
+        <v>1.118982550764215</v>
       </c>
       <c r="O3">
-        <v>1.517910834236943</v>
+        <v>2.322401474574406</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.113039974072024</v>
+        <v>0.9450319952749737</v>
       </c>
       <c r="C4">
-        <v>0.2998239555028448</v>
+        <v>0.2226116043022586</v>
       </c>
       <c r="D4">
-        <v>0.1593175485542559</v>
+        <v>0.06706314025053928</v>
       </c>
       <c r="E4">
-        <v>0.04570861260294024</v>
+        <v>0.1052180906332225</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4059014366559666</v>
+        <v>0.5232431947960379</v>
       </c>
       <c r="H4">
-        <v>0.3057106974850541</v>
+        <v>0.652553346698312</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.244716529469045</v>
+        <v>0.192948106710503</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7129606704715101</v>
+        <v>1.125157048392737</v>
       </c>
       <c r="O4">
-        <v>1.450225532641923</v>
+        <v>2.319316495077544</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.025568053754341</v>
+        <v>0.9194177838570567</v>
       </c>
       <c r="C5">
-        <v>0.2931569510230787</v>
+        <v>0.2203572743890874</v>
       </c>
       <c r="D5">
-        <v>0.1526691909173934</v>
+        <v>0.06523482299692773</v>
       </c>
       <c r="E5">
-        <v>0.04555961052377988</v>
+        <v>0.1054169606215254</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3961860612402717</v>
+        <v>0.5221911962112529</v>
       </c>
       <c r="H5">
-        <v>0.3028428904980274</v>
+        <v>0.6532575216318008</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2355228316340003</v>
+        <v>0.1906840168717281</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.718511611954689</v>
+        <v>1.127790035911445</v>
       </c>
       <c r="O5">
-        <v>1.423513073663401</v>
+        <v>2.318471975254766</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.011049067330362</v>
+        <v>0.9151669254649732</v>
       </c>
       <c r="C6">
-        <v>0.2920493575550154</v>
+        <v>0.2199824563851394</v>
       </c>
       <c r="D6">
-        <v>0.1515672284971146</v>
+        <v>0.06493175507553417</v>
       </c>
       <c r="E6">
-        <v>0.04553626530132249</v>
+        <v>0.1054508318127407</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3945876843695544</v>
+        <v>0.5220230356730298</v>
       </c>
       <c r="H6">
-        <v>0.3023760268207099</v>
+        <v>0.6533798262938717</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2339994438448798</v>
+        <v>0.1903096378466103</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7194478680674621</v>
+        <v>1.128234300106968</v>
       </c>
       <c r="O6">
-        <v>1.419128339085745</v>
+        <v>2.318356650041295</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.111859897808358</v>
+        <v>0.9446863956681</v>
       </c>
       <c r="C7">
-        <v>0.2997340776554154</v>
+        <v>0.2225812344594402</v>
       </c>
       <c r="D7">
-        <v>0.1592277499312331</v>
+        <v>0.06703844787510604</v>
       </c>
       <c r="E7">
-        <v>0.04570650885060523</v>
+        <v>0.105220715749514</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4057694040546238</v>
+        <v>0.5232285697327654</v>
       </c>
       <c r="H7">
-        <v>0.3056713901425638</v>
+        <v>0.6525624829803149</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2445923204591622</v>
+        <v>0.1929174671089413</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7130345537191616</v>
+        <v>1.125192084638783</v>
       </c>
       <c r="O7">
-        <v>1.449861833776055</v>
+        <v>2.319303435552484</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.55776152524362</v>
+        <v>1.075282560328162</v>
       </c>
       <c r="C8">
-        <v>0.3335736725488658</v>
+        <v>0.2339769396381399</v>
       </c>
       <c r="D8">
-        <v>0.1933547096566031</v>
+        <v>0.07641086174832878</v>
       </c>
       <c r="E8">
-        <v>0.04666784201816476</v>
+        <v>0.104328662777359</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4574027506051124</v>
+        <v>0.5294981231249665</v>
       </c>
       <c r="H8">
-        <v>0.321629616992837</v>
+        <v>0.649737370894087</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2918465590014563</v>
+        <v>0.2046531359562778</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6868994096581318</v>
+        <v>1.112792910198969</v>
       </c>
       <c r="O8">
-        <v>1.593277944556718</v>
+        <v>2.327105399492808</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.438290287587108</v>
+        <v>1.3324964241462</v>
       </c>
       <c r="C9">
-        <v>0.3997595733221146</v>
+        <v>0.2560546382573818</v>
       </c>
       <c r="D9">
-        <v>0.2617814979714836</v>
+        <v>0.0950649385653719</v>
       </c>
       <c r="E9">
-        <v>0.0493808229694821</v>
+        <v>0.1030228709396273</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5682490756547338</v>
+        <v>0.5452237253171859</v>
       </c>
       <c r="H9">
-        <v>0.3586322423439441</v>
+        <v>0.6470080739191388</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3867867027590961</v>
+        <v>0.2284823412919792</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6439857246123921</v>
+        <v>1.092158909350879</v>
       </c>
       <c r="O9">
-        <v>1.906712765442705</v>
+        <v>2.355470420149203</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.091436985643952</v>
+        <v>1.522102256486676</v>
       </c>
       <c r="C10">
-        <v>0.448374554380365</v>
+        <v>0.2721039768154867</v>
       </c>
       <c r="D10">
-        <v>0.3133247221287405</v>
+        <v>0.1089408607896161</v>
       </c>
       <c r="E10">
-        <v>0.05195199737861778</v>
+        <v>0.1023340002117727</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6569219477509449</v>
+        <v>0.5588878932375394</v>
       </c>
       <c r="H10">
-        <v>0.3899272695157379</v>
+        <v>0.6467188476803187</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4583817919457545</v>
+        <v>0.2464864276758902</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6180992960705041</v>
+        <v>1.079238967191756</v>
       </c>
       <c r="O10">
-        <v>2.160876762906895</v>
+        <v>2.384321043778669</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.39052521000815</v>
+        <v>1.608486632717643</v>
       </c>
       <c r="C11">
-        <v>0.4705116489503212</v>
+        <v>0.2793666834123201</v>
       </c>
       <c r="D11">
-        <v>0.337133293352764</v>
+        <v>0.1152912297184798</v>
       </c>
       <c r="E11">
-        <v>0.05326456324381468</v>
+        <v>0.1020793815942174</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6991641385437504</v>
+        <v>0.5655665551803821</v>
       </c>
       <c r="H11">
-        <v>0.4052072086844447</v>
+        <v>0.6469604884640887</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4914617842648283</v>
+        <v>0.2547848567492537</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6076817231890388</v>
+        <v>1.073846980146946</v>
       </c>
       <c r="O11">
-        <v>2.282707877016747</v>
+        <v>2.399195675578341</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.504118597223339</v>
+        <v>1.641215887461442</v>
       </c>
       <c r="C12">
-        <v>0.4788995962985325</v>
+        <v>0.2821112360297775</v>
       </c>
       <c r="D12">
-        <v>0.3462084368177472</v>
+        <v>0.1177014626576067</v>
       </c>
       <c r="E12">
-        <v>0.05378370246283026</v>
+        <v>0.1019914142280633</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7154638419861357</v>
+        <v>0.5681624274364481</v>
       </c>
       <c r="H12">
-        <v>0.4111569768172956</v>
+        <v>0.6471056935015582</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5040715405312568</v>
+        <v>0.2579427823153111</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.603944282706216</v>
+        <v>1.071874924022204</v>
       </c>
       <c r="O12">
-        <v>2.329826903483649</v>
+        <v>2.405080707794014</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.479638447036962</v>
+        <v>1.634166309548107</v>
       </c>
       <c r="C13">
-        <v>0.4770928411641648</v>
+        <v>0.281520402867784</v>
       </c>
       <c r="D13">
-        <v>0.3442511787533675</v>
+        <v>0.1171821318632027</v>
       </c>
       <c r="E13">
-        <v>0.05367088791063068</v>
+        <v>0.1020099836632191</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7119394145378237</v>
+        <v>0.5676003844228035</v>
       </c>
       <c r="H13">
-        <v>0.4098680860278563</v>
+        <v>0.647072032098805</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5013519481241957</v>
+        <v>0.2572619788692379</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6047397774368619</v>
+        <v>1.072296538743913</v>
       </c>
       <c r="O13">
-        <v>2.319633678178064</v>
+        <v>2.403802028182156</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.399863575529139</v>
+        <v>1.611178949176917</v>
       </c>
       <c r="C14">
-        <v>0.4712016160844996</v>
+        <v>0.279592594213284</v>
       </c>
       <c r="D14">
-        <v>0.3378786769677902</v>
+        <v>0.1154894110796363</v>
       </c>
       <c r="E14">
-        <v>0.05330682100283468</v>
+        <v>0.1020719750764627</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7004988644443131</v>
+        <v>0.5657787787200874</v>
       </c>
       <c r="H14">
-        <v>0.4056933401024736</v>
+        <v>0.6469713581307133</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4924974738348169</v>
+        <v>0.2550443511906479</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6073700110597784</v>
+        <v>1.073683339668328</v>
       </c>
       <c r="O14">
-        <v>2.286564115376308</v>
+        <v>2.399674779980643</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.351044430472996</v>
+        <v>1.597100742066573</v>
       </c>
       <c r="C15">
-        <v>0.4675937976225555</v>
+        <v>0.2784110111072096</v>
       </c>
       <c r="D15">
-        <v>0.3339832942997134</v>
+        <v>0.1144532851933491</v>
       </c>
       <c r="E15">
-        <v>0.05308674517348777</v>
+        <v>0.1021110472797648</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6935316404849772</v>
+        <v>0.5646717007809343</v>
       </c>
       <c r="H15">
-        <v>0.4031579100357874</v>
+        <v>0.6469166868619283</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.487084969640037</v>
+        <v>0.2536880051599866</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6090084989284605</v>
+        <v>1.074541881134031</v>
       </c>
       <c r="O15">
-        <v>2.26643905248136</v>
+        <v>2.397179601176134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.071934836624621</v>
+        <v>1.516459350270907</v>
       </c>
       <c r="C16">
-        <v>0.4469284471005892</v>
+        <v>0.2716285573216908</v>
       </c>
       <c r="D16">
-        <v>0.3117766664809523</v>
+        <v>0.1085266168871044</v>
       </c>
       <c r="E16">
-        <v>0.05186922394027071</v>
+        <v>0.1023518226108475</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6542021271709189</v>
+        <v>0.558460761475132</v>
       </c>
       <c r="H16">
-        <v>0.3889508224418705</v>
+        <v>0.646710568719044</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4562310235762652</v>
+        <v>0.2459462778580246</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6188084601721897</v>
+        <v>1.079601110928493</v>
       </c>
       <c r="O16">
-        <v>2.153047422397634</v>
+        <v>2.38338422726406</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.901250088230199</v>
+        <v>1.467021085190595</v>
       </c>
       <c r="C17">
-        <v>0.4342578677790812</v>
+        <v>0.2674578240242056</v>
       </c>
       <c r="D17">
-        <v>0.2982512528165557</v>
+        <v>0.1049005680954309</v>
       </c>
       <c r="E17">
-        <v>0.05115998823716694</v>
+        <v>0.1025145802274832</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6305829197311681</v>
+        <v>0.554769263794725</v>
       </c>
       <c r="H17">
-        <v>0.3805118376531311</v>
+        <v>0.6466797341213777</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.437440614270372</v>
+        <v>0.2412246551525499</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6251766856627796</v>
+        <v>1.082829079718543</v>
       </c>
       <c r="O17">
-        <v>2.085138737787616</v>
+        <v>2.375369968728933</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.803258660967174</v>
+        <v>1.438597995977716</v>
       </c>
       <c r="C18">
-        <v>0.4269720180874401</v>
+        <v>0.2650553420652102</v>
       </c>
       <c r="D18">
-        <v>0.2905053256410213</v>
+        <v>0.1028185508424428</v>
       </c>
       <c r="E18">
-        <v>0.05076540882020275</v>
+        <v>0.102613723972711</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.617175130375756</v>
+        <v>0.5526895537950907</v>
       </c>
       <c r="H18">
-        <v>0.3757553252600161</v>
+        <v>0.6466971252599762</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.426680351786473</v>
+        <v>0.238519099260003</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.628966592648176</v>
+        <v>1.084731407299984</v>
       </c>
       <c r="O18">
-        <v>2.046658183278851</v>
+        <v>2.370925091465324</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.770110173582623</v>
+        <v>1.428976620178275</v>
       </c>
       <c r="C19">
-        <v>0.4245054297981312</v>
+        <v>0.2642412924998325</v>
       </c>
       <c r="D19">
-        <v>0.2878882304372468</v>
+        <v>0.1021142321303188</v>
       </c>
       <c r="E19">
-        <v>0.05063405919125685</v>
+        <v>0.1026482420193151</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6126650767529895</v>
+        <v>0.5519928700392427</v>
       </c>
       <c r="H19">
-        <v>0.3741611799148785</v>
+        <v>0.6467090455726066</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4230449865810471</v>
+        <v>0.2376047982322973</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6302712585423151</v>
+        <v>1.085383349974073</v>
       </c>
       <c r="O19">
-        <v>2.033726058866762</v>
+        <v>2.369448402497795</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.919400578392697</v>
+        <v>1.472282591331577</v>
       </c>
       <c r="C20">
-        <v>0.4356064589818232</v>
+        <v>0.2679021782061284</v>
       </c>
       <c r="D20">
-        <v>0.2996875337752698</v>
+        <v>0.1052861956072633</v>
       </c>
       <c r="E20">
-        <v>0.05123409461296191</v>
+        <v>0.1024966820612718</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6330786615643973</v>
+        <v>0.5551577216983929</v>
       </c>
       <c r="H20">
-        <v>0.3814000101223201</v>
+        <v>0.6466793808233575</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4394359038108604</v>
+        <v>0.2417262252192813</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6244855404434304</v>
+        <v>1.082480728842732</v>
       </c>
       <c r="O20">
-        <v>2.092307198957855</v>
+        <v>2.37620604851395</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.423285856397627</v>
+        <v>1.6179304353725</v>
       </c>
       <c r="C21">
-        <v>0.472931856410753</v>
+        <v>0.2801589938524955</v>
       </c>
       <c r="D21">
-        <v>0.3397487626408804</v>
+        <v>0.1159864553102068</v>
       </c>
       <c r="E21">
-        <v>0.05341314366094352</v>
+        <v>0.1020535373118214</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.703850746855025</v>
+        <v>0.5663120132326895</v>
       </c>
       <c r="H21">
-        <v>0.4069150116792031</v>
+        <v>0.6469994708193383</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4950959126244499</v>
+        <v>0.2556953024242716</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6065917159276637</v>
+        <v>1.073274109168025</v>
       </c>
       <c r="O21">
-        <v>2.296249974900803</v>
+        <v>2.400880199553001</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.75458492484745</v>
+        <v>1.713220215657373</v>
       </c>
       <c r="C22">
-        <v>0.4973569999914957</v>
+        <v>0.2881363594351001</v>
       </c>
       <c r="D22">
-        <v>0.3662808931867261</v>
+        <v>0.1230116705564086</v>
       </c>
       <c r="E22">
-        <v>0.05496688446664066</v>
+        <v>0.1018131777778883</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.75188886429018</v>
+        <v>0.5739915165035114</v>
       </c>
       <c r="H22">
-        <v>0.4245510803569772</v>
+        <v>0.6475216938885495</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5319622023464632</v>
+        <v>0.2649151556299785</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5961126249094519</v>
+        <v>1.06766373095914</v>
       </c>
       <c r="O22">
-        <v>2.435322628608446</v>
+        <v>2.418477260742492</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.577564783965784</v>
+        <v>1.662353591349074</v>
       </c>
       <c r="C23">
-        <v>0.4843173197522503</v>
+        <v>0.28388178417066</v>
       </c>
       <c r="D23">
-        <v>0.3520855976147033</v>
+        <v>0.1192592548378144</v>
       </c>
       <c r="E23">
-        <v>0.05412522541444176</v>
+        <v>0.1019369538961676</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7260763423300176</v>
+        <v>0.5698570925394364</v>
       </c>
       <c r="H23">
-        <v>0.415045750981804</v>
+        <v>0.647214320589427</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5122378362055571</v>
+        <v>0.2599861146824907</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6015900457590035</v>
+        <v>1.070620890088968</v>
       </c>
       <c r="O23">
-        <v>2.360535710269573</v>
+        <v>2.408950564999259</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.911194317369961</v>
+        <v>1.469903865444223</v>
       </c>
       <c r="C24">
-        <v>0.4349967652961766</v>
+        <v>0.2677013002190165</v>
       </c>
       <c r="D24">
-        <v>0.2990380982221126</v>
+        <v>0.1051118451675563</v>
       </c>
       <c r="E24">
-        <v>0.05120055021567538</v>
+        <v>0.1025047564656418</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.631949805622483</v>
+        <v>0.5549819672623642</v>
       </c>
       <c r="H24">
-        <v>0.3809981719172271</v>
+        <v>0.6466794311577218</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4385337014550998</v>
+        <v>0.2414994374541379</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.624797607142483</v>
+        <v>1.082638073345713</v>
       </c>
       <c r="O24">
-        <v>2.089064596917012</v>
+        <v>2.37582755031454</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.199182626137826</v>
+        <v>1.262798954995787</v>
       </c>
       <c r="C25">
-        <v>0.3818639107245332</v>
+        <v>0.2501115873144641</v>
       </c>
       <c r="D25">
-        <v>0.2430741688904305</v>
+        <v>0.08998875932674366</v>
       </c>
       <c r="E25">
-        <v>0.0485509736954608</v>
+        <v>0.1033286286602682</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5370977813715712</v>
+        <v>0.5406002586178573</v>
       </c>
       <c r="H25">
-        <v>0.3479485587259461</v>
+        <v>0.6474452561602959</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3608141756912886</v>
+        <v>0.2219486400094866</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6546469873161627</v>
+        <v>1.097347339628051</v>
       </c>
       <c r="O25">
-        <v>1.818051621296604</v>
+        <v>2.346393447255934</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.110744889959449</v>
+        <v>2.678906243685788</v>
       </c>
       <c r="C2">
-        <v>0.2370466469056112</v>
+        <v>0.3427275757789516</v>
       </c>
       <c r="D2">
-        <v>0.07896879185899763</v>
+        <v>0.2026908738841939</v>
       </c>
       <c r="E2">
-        <v>0.1041169720498214</v>
+        <v>0.04698177213594334</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5314283454143123</v>
+        <v>0.471993837464737</v>
       </c>
       <c r="H2">
-        <v>0.649162030729812</v>
+        <v>0.326317952817277</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2078881262378616</v>
+        <v>0.3047881881207246</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.109682608641549</v>
+        <v>0.6803628659248204</v>
       </c>
       <c r="O2">
-        <v>2.330101827823086</v>
+        <v>1.634167383937978</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.007981929872017</v>
+        <v>2.327958341515682</v>
       </c>
       <c r="C3">
-        <v>0.2281235549205718</v>
+        <v>0.3161635905251927</v>
       </c>
       <c r="D3">
-        <v>0.07157096782734129</v>
+        <v>0.1757187781473419</v>
       </c>
       <c r="E3">
-        <v>0.1047645686840024</v>
+        <v>0.04613219713309036</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5260900438135394</v>
+        <v>0.4303682107719879</v>
       </c>
       <c r="H3">
-        <v>0.6510438205903029</v>
+        <v>0.3131374754574665</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1985677997574413</v>
+        <v>0.2674152468574391</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.118982550764215</v>
+        <v>0.6999383334081273</v>
       </c>
       <c r="O3">
-        <v>2.322401474574406</v>
+        <v>1.517910834237</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9450319952749737</v>
+        <v>2.113039974072137</v>
       </c>
       <c r="C4">
-        <v>0.2226116043022586</v>
+        <v>0.2998239555027595</v>
       </c>
       <c r="D4">
-        <v>0.06706314025053928</v>
+        <v>0.1593175485543696</v>
       </c>
       <c r="E4">
-        <v>0.1052180906332225</v>
+        <v>0.04570861260293668</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5232431947960379</v>
+        <v>0.4059014366559239</v>
       </c>
       <c r="H4">
-        <v>0.652553346698312</v>
+        <v>0.3057106974850541</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.192948106710503</v>
+        <v>0.244716529469116</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.125157048392737</v>
+        <v>0.712960670471503</v>
       </c>
       <c r="O4">
-        <v>2.319316495077544</v>
+        <v>1.450225532641838</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9194177838570567</v>
+        <v>2.025568053754455</v>
       </c>
       <c r="C5">
-        <v>0.2203572743890874</v>
+        <v>0.2931569510230645</v>
       </c>
       <c r="D5">
-        <v>0.06523482299692773</v>
+        <v>0.1526691909172229</v>
       </c>
       <c r="E5">
-        <v>0.1054169606215254</v>
+        <v>0.04555961052377633</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5221911962112529</v>
+        <v>0.396186061240229</v>
       </c>
       <c r="H5">
-        <v>0.6532575216318008</v>
+        <v>0.3028428904980416</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1906840168717281</v>
+        <v>0.2355228316339719</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.127790035911445</v>
+        <v>0.7185116119546819</v>
       </c>
       <c r="O5">
-        <v>2.318471975254766</v>
+        <v>1.423513073663486</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9151669254649732</v>
+        <v>2.011049067330248</v>
       </c>
       <c r="C6">
-        <v>0.2199824563851394</v>
+        <v>0.2920493575555696</v>
       </c>
       <c r="D6">
-        <v>0.06493175507553417</v>
+        <v>0.1515672284969725</v>
       </c>
       <c r="E6">
-        <v>0.1054508318127407</v>
+        <v>0.04553626530131183</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5220230356730298</v>
+        <v>0.3945876843695544</v>
       </c>
       <c r="H6">
-        <v>0.6533798262938717</v>
+        <v>0.3023760268206956</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1903096378466103</v>
+        <v>0.2339994438449366</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.128234300106968</v>
+        <v>0.7194478680674621</v>
       </c>
       <c r="O6">
-        <v>2.318356650041295</v>
+        <v>1.41912833908566</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9446863956681</v>
+        <v>2.111859897808472</v>
       </c>
       <c r="C7">
-        <v>0.2225812344594402</v>
+        <v>0.2997340776554012</v>
       </c>
       <c r="D7">
-        <v>0.06703844787510604</v>
+        <v>0.1592277499311336</v>
       </c>
       <c r="E7">
-        <v>0.105220715749514</v>
+        <v>0.04570650885060346</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5232285697327654</v>
+        <v>0.4057694040547375</v>
       </c>
       <c r="H7">
-        <v>0.6525624829803149</v>
+        <v>0.3056713901424786</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1929174671089413</v>
+        <v>0.2445923204591907</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.125192084638783</v>
+        <v>0.7130345537191189</v>
       </c>
       <c r="O7">
-        <v>2.319303435552484</v>
+        <v>1.449861833776083</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.075282560328162</v>
+        <v>2.557761525243563</v>
       </c>
       <c r="C8">
-        <v>0.2339769396381399</v>
+        <v>0.3335736725486953</v>
       </c>
       <c r="D8">
-        <v>0.07641086174832878</v>
+        <v>0.1933547096565462</v>
       </c>
       <c r="E8">
-        <v>0.104328662777359</v>
+        <v>0.04666784201818075</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5294981231249665</v>
+        <v>0.4574027506052118</v>
       </c>
       <c r="H8">
-        <v>0.649737370894087</v>
+        <v>0.321629616992837</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2046531359562778</v>
+        <v>0.2918465590015416</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.112792910198969</v>
+        <v>0.6868994096581247</v>
       </c>
       <c r="O8">
-        <v>2.327105399492808</v>
+        <v>1.593277944556689</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.3324964241462</v>
+        <v>3.438290287586995</v>
       </c>
       <c r="C9">
-        <v>0.2560546382573818</v>
+        <v>0.3997595733219725</v>
       </c>
       <c r="D9">
-        <v>0.0950649385653719</v>
+        <v>0.2617814979714979</v>
       </c>
       <c r="E9">
-        <v>0.1030228709396273</v>
+        <v>0.04938082296949986</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5452237253171859</v>
+        <v>0.568249075654677</v>
       </c>
       <c r="H9">
-        <v>0.6470080739191388</v>
+        <v>0.358632242344072</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2284823412919792</v>
+        <v>0.3867867027591814</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.092158909350879</v>
+        <v>0.643985724612385</v>
       </c>
       <c r="O9">
-        <v>2.355470420149203</v>
+        <v>1.906712765442705</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.522102256486676</v>
+        <v>4.091436985643838</v>
       </c>
       <c r="C10">
-        <v>0.2721039768154867</v>
+        <v>0.4483745543803934</v>
       </c>
       <c r="D10">
-        <v>0.1089408607896161</v>
+        <v>0.3133247221287405</v>
       </c>
       <c r="E10">
-        <v>0.1023340002117727</v>
+        <v>0.05195199737863376</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5588878932375394</v>
+        <v>0.6569219477509449</v>
       </c>
       <c r="H10">
-        <v>0.6467188476803187</v>
+        <v>0.3899272695157379</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2464864276758902</v>
+        <v>0.4583817919458113</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.079238967191756</v>
+        <v>0.6180992960705041</v>
       </c>
       <c r="O10">
-        <v>2.384321043778669</v>
+        <v>2.160876762906895</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.608486632717643</v>
+        <v>4.390525210008263</v>
       </c>
       <c r="C11">
-        <v>0.2793666834123201</v>
+        <v>0.4705116489502643</v>
       </c>
       <c r="D11">
-        <v>0.1152912297184798</v>
+        <v>0.3371332933526929</v>
       </c>
       <c r="E11">
-        <v>0.1020793815942174</v>
+        <v>0.05326456324381823</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5655665551803821</v>
+        <v>0.6991641385437362</v>
       </c>
       <c r="H11">
-        <v>0.6469604884640887</v>
+        <v>0.4052072086845726</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2547848567492537</v>
+        <v>0.4914617842647004</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.073846980146946</v>
+        <v>0.6076817231890885</v>
       </c>
       <c r="O11">
-        <v>2.399195675578341</v>
+        <v>2.282707877016634</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.641215887461442</v>
+        <v>4.504118597223112</v>
       </c>
       <c r="C12">
-        <v>0.2821112360297775</v>
+        <v>0.4788995962983051</v>
       </c>
       <c r="D12">
-        <v>0.1177014626576067</v>
+        <v>0.3462084368178751</v>
       </c>
       <c r="E12">
-        <v>0.1019914142280633</v>
+        <v>0.0537837024628196</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5681624274364481</v>
+        <v>0.7154638419861357</v>
       </c>
       <c r="H12">
-        <v>0.6471056935015582</v>
+        <v>0.4111569768172956</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2579427823153111</v>
+        <v>0.5040715405312568</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.071874924022204</v>
+        <v>0.6039442827062729</v>
       </c>
       <c r="O12">
-        <v>2.405080707794014</v>
+        <v>2.329826903483649</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.634166309548107</v>
+        <v>4.479638447036962</v>
       </c>
       <c r="C13">
-        <v>0.281520402867784</v>
+        <v>0.4770928411639659</v>
       </c>
       <c r="D13">
-        <v>0.1171821318632027</v>
+        <v>0.3442511787532254</v>
       </c>
       <c r="E13">
-        <v>0.1020099836632191</v>
+        <v>0.05367088791060581</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5676003844228035</v>
+        <v>0.7119394145378095</v>
       </c>
       <c r="H13">
-        <v>0.647072032098805</v>
+        <v>0.4098680860278563</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2572619788692379</v>
+        <v>0.5013519481241673</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.072296538743913</v>
+        <v>0.6047397774367838</v>
       </c>
       <c r="O13">
-        <v>2.403802028182156</v>
+        <v>2.319633678178008</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.611178949176917</v>
+        <v>4.399863575529082</v>
       </c>
       <c r="C14">
-        <v>0.279592594213284</v>
+        <v>0.4712016160847838</v>
       </c>
       <c r="D14">
-        <v>0.1154894110796363</v>
+        <v>0.337878676967776</v>
       </c>
       <c r="E14">
-        <v>0.1020719750764627</v>
+        <v>0.05330682100281692</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5657787787200874</v>
+        <v>0.7004988644442989</v>
       </c>
       <c r="H14">
-        <v>0.6469713581307133</v>
+        <v>0.4056933401024594</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2550443511906479</v>
+        <v>0.4924974738348169</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.073683339668328</v>
+        <v>0.6073700110597784</v>
       </c>
       <c r="O14">
-        <v>2.399674779980643</v>
+        <v>2.286564115376393</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.597100742066573</v>
+        <v>4.351044430472882</v>
       </c>
       <c r="C15">
-        <v>0.2784110111072096</v>
+        <v>0.4675937976224702</v>
       </c>
       <c r="D15">
-        <v>0.1144532851933491</v>
+        <v>0.3339832942996708</v>
       </c>
       <c r="E15">
-        <v>0.1021110472797648</v>
+        <v>0.05308674517347001</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5646717007809343</v>
+        <v>0.693531640484963</v>
       </c>
       <c r="H15">
-        <v>0.6469166868619283</v>
+        <v>0.4031579100357874</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2536880051599866</v>
+        <v>0.4870849696399659</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.074541881134031</v>
+        <v>0.6090084989284676</v>
       </c>
       <c r="O15">
-        <v>2.397179601176134</v>
+        <v>2.26643905248136</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.516459350270907</v>
+        <v>4.071934836624621</v>
       </c>
       <c r="C16">
-        <v>0.2716285573216908</v>
+        <v>0.4469284471006176</v>
       </c>
       <c r="D16">
-        <v>0.1085266168871044</v>
+        <v>0.3117766664808812</v>
       </c>
       <c r="E16">
-        <v>0.1023518226108475</v>
+        <v>0.05186922394027071</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.558460761475132</v>
+        <v>0.6542021271709189</v>
       </c>
       <c r="H16">
-        <v>0.646710568719044</v>
+        <v>0.3889508224419984</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2459462778580246</v>
+        <v>0.4562310235762652</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.079601110928493</v>
+        <v>0.6188084601722537</v>
       </c>
       <c r="O16">
-        <v>2.38338422726406</v>
+        <v>2.153047422397691</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.467021085190595</v>
+        <v>3.901250088230199</v>
       </c>
       <c r="C17">
-        <v>0.2674578240242056</v>
+        <v>0.4342578677789959</v>
       </c>
       <c r="D17">
-        <v>0.1049005680954309</v>
+        <v>0.2982512528165699</v>
       </c>
       <c r="E17">
-        <v>0.1025145802274832</v>
+        <v>0.05115998823715096</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.554769263794725</v>
+        <v>0.6305829197312391</v>
       </c>
       <c r="H17">
-        <v>0.6466797341213777</v>
+        <v>0.3805118376531169</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2412246551525499</v>
+        <v>0.4374406142704004</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.082829079718543</v>
+        <v>0.6251766856627796</v>
       </c>
       <c r="O17">
-        <v>2.375369968728933</v>
+        <v>2.085138737787645</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.438597995977716</v>
+        <v>3.803258660967344</v>
       </c>
       <c r="C18">
-        <v>0.2650553420652102</v>
+        <v>0.4269720180875538</v>
       </c>
       <c r="D18">
-        <v>0.1028185508424428</v>
+        <v>0.2905053256410781</v>
       </c>
       <c r="E18">
-        <v>0.102613723972711</v>
+        <v>0.05076540882020275</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5526895537950907</v>
+        <v>0.6171751303757702</v>
       </c>
       <c r="H18">
-        <v>0.6466971252599762</v>
+        <v>0.3757553252599308</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.238519099260003</v>
+        <v>0.426680351786402</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.084731407299984</v>
+        <v>0.628966592648176</v>
       </c>
       <c r="O18">
-        <v>2.370925091465324</v>
+        <v>2.046658183278851</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.428976620178275</v>
+        <v>3.770110173582623</v>
       </c>
       <c r="C19">
-        <v>0.2642412924998325</v>
+        <v>0.4245054297982449</v>
       </c>
       <c r="D19">
-        <v>0.1021142321303188</v>
+        <v>0.2878882304373747</v>
       </c>
       <c r="E19">
-        <v>0.1026482420193151</v>
+        <v>0.05063405919125685</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5519928700392427</v>
+        <v>0.6126650767529185</v>
       </c>
       <c r="H19">
-        <v>0.6467090455726066</v>
+        <v>0.3741611799148785</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2376047982322973</v>
+        <v>0.4230449865810471</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.085383349974073</v>
+        <v>0.6302712585423151</v>
       </c>
       <c r="O19">
-        <v>2.369448402497795</v>
+        <v>2.033726058866819</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.472282591331577</v>
+        <v>3.91940057839264</v>
       </c>
       <c r="C20">
-        <v>0.2679021782061284</v>
+        <v>0.4356064589817663</v>
       </c>
       <c r="D20">
-        <v>0.1052861956072633</v>
+        <v>0.2996875337753266</v>
       </c>
       <c r="E20">
-        <v>0.1024966820612718</v>
+        <v>0.05123409461294415</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5551577216983929</v>
+        <v>0.6330786615642836</v>
       </c>
       <c r="H20">
-        <v>0.6466793808233575</v>
+        <v>0.3814000101222064</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2417262252192813</v>
+        <v>0.4394359038108178</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.082480728842732</v>
+        <v>0.6244855404435015</v>
       </c>
       <c r="O20">
-        <v>2.37620604851395</v>
+        <v>2.092307198957883</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.6179304353725</v>
+        <v>4.423285856397342</v>
       </c>
       <c r="C21">
-        <v>0.2801589938524955</v>
+        <v>0.4729318564104972</v>
       </c>
       <c r="D21">
-        <v>0.1159864553102068</v>
+        <v>0.3397487626408093</v>
       </c>
       <c r="E21">
-        <v>0.1020535373118214</v>
+        <v>0.05341314366093997</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5663120132326895</v>
+        <v>0.7038507468550534</v>
       </c>
       <c r="H21">
-        <v>0.6469994708193383</v>
+        <v>0.4069150116792173</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2556953024242716</v>
+        <v>0.4950959126244925</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.073274109168025</v>
+        <v>0.6065917159276637</v>
       </c>
       <c r="O21">
-        <v>2.400880199553001</v>
+        <v>2.296249974900775</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.713220215657373</v>
+        <v>4.75458492484745</v>
       </c>
       <c r="C22">
-        <v>0.2881363594351001</v>
+        <v>0.4973569999911547</v>
       </c>
       <c r="D22">
-        <v>0.1230116705564086</v>
+        <v>0.3662808931868398</v>
       </c>
       <c r="E22">
-        <v>0.1018131777778883</v>
+        <v>0.05496688446664422</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5739915165035114</v>
+        <v>0.75188886429018</v>
       </c>
       <c r="H22">
-        <v>0.6475216938885495</v>
+        <v>0.4245510803570909</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2649151556299785</v>
+        <v>0.5319622023464063</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.06766373095914</v>
+        <v>0.5961126249094448</v>
       </c>
       <c r="O22">
-        <v>2.418477260742492</v>
+        <v>2.435322628608418</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.662353591349074</v>
+        <v>4.577564783965727</v>
       </c>
       <c r="C23">
-        <v>0.28388178417066</v>
+        <v>0.4843173197522219</v>
       </c>
       <c r="D23">
-        <v>0.1192592548378144</v>
+        <v>0.3520855976147601</v>
       </c>
       <c r="E23">
-        <v>0.1019369538961676</v>
+        <v>0.05412522541443821</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5698570925394364</v>
+        <v>0.7260763423300034</v>
       </c>
       <c r="H23">
-        <v>0.647214320589427</v>
+        <v>0.4150457509819176</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2599861146824907</v>
+        <v>0.5122378362056139</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.070620890088968</v>
+        <v>0.6015900457590106</v>
       </c>
       <c r="O23">
-        <v>2.408950564999259</v>
+        <v>2.36053571026963</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.469903865444223</v>
+        <v>3.911194317369905</v>
       </c>
       <c r="C24">
-        <v>0.2677013002190165</v>
+        <v>0.4349967652959776</v>
       </c>
       <c r="D24">
-        <v>0.1051118451675563</v>
+        <v>0.2990380982219989</v>
       </c>
       <c r="E24">
-        <v>0.1025047564656418</v>
+        <v>0.0512005502156434</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5549819672623642</v>
+        <v>0.631949805622483</v>
       </c>
       <c r="H24">
-        <v>0.6466794311577218</v>
+        <v>0.3809981719172413</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2414994374541379</v>
+        <v>0.4385337014550714</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.082638073345713</v>
+        <v>0.6247976071425398</v>
       </c>
       <c r="O24">
-        <v>2.37582755031454</v>
+        <v>2.089064596917012</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.262798954995787</v>
+        <v>3.199182626137826</v>
       </c>
       <c r="C25">
-        <v>0.2501115873144641</v>
+        <v>0.3818639107245474</v>
       </c>
       <c r="D25">
-        <v>0.08998875932674366</v>
+        <v>0.2430741688906153</v>
       </c>
       <c r="E25">
-        <v>0.1033286286602682</v>
+        <v>0.04855097369549455</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5406002586178573</v>
+        <v>0.5370977813715427</v>
       </c>
       <c r="H25">
-        <v>0.6474452561602959</v>
+        <v>0.3479485587258324</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2219486400094866</v>
+        <v>0.3608141756912602</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.097347339628051</v>
+        <v>0.6546469873161698</v>
       </c>
       <c r="O25">
-        <v>2.346393447255934</v>
+        <v>1.818051621296632</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.678906243685788</v>
+        <v>0.7682831063773961</v>
       </c>
       <c r="C2">
-        <v>0.3427275757789516</v>
+        <v>0.1426950791621522</v>
       </c>
       <c r="D2">
-        <v>0.2026908738841939</v>
+        <v>0.440802823512243</v>
       </c>
       <c r="E2">
-        <v>0.04698177213594334</v>
+        <v>0.1635706411922904</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.471993837464737</v>
+        <v>0.4492940665470968</v>
       </c>
       <c r="H2">
-        <v>0.326317952817277</v>
+        <v>0.00414206045618859</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001485053621579802</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3807367718266477</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3460688535189433</v>
       </c>
       <c r="L2">
-        <v>0.3047881881207246</v>
+        <v>0.07543392317440478</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8555490339874723</v>
       </c>
       <c r="N2">
-        <v>0.6803628659248204</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.634167383937978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3691470524358493</v>
+      </c>
+      <c r="P2">
+        <v>0.9158872838081571</v>
+      </c>
+      <c r="Q2">
+        <v>1.696403707564386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.327958341515682</v>
+        <v>0.6689324410468203</v>
       </c>
       <c r="C3">
-        <v>0.3161635905251927</v>
+        <v>0.1254345786037447</v>
       </c>
       <c r="D3">
-        <v>0.1757187781473419</v>
+        <v>0.4020272443467832</v>
       </c>
       <c r="E3">
-        <v>0.04613219713309036</v>
+        <v>0.1491149797959253</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4303682107719879</v>
+        <v>0.4346240326648072</v>
       </c>
       <c r="H3">
-        <v>0.3131374754574665</v>
+        <v>0.005976366586593174</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002243721485276851</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3776766555104345</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3453027066999717</v>
       </c>
       <c r="L3">
-        <v>0.2674152468574391</v>
+        <v>0.06838423275396011</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7456224948000454</v>
       </c>
       <c r="N3">
-        <v>0.6999383334081273</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.517910834237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3237320170392906</v>
+      </c>
+      <c r="P3">
+        <v>0.9439312026402895</v>
+      </c>
+      <c r="Q3">
+        <v>1.658629315098892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.113039974072137</v>
+        <v>0.6075906476399666</v>
       </c>
       <c r="C4">
-        <v>0.2998239555027595</v>
+        <v>0.1149714044176449</v>
       </c>
       <c r="D4">
-        <v>0.1593175485543696</v>
+        <v>0.3783636093858007</v>
       </c>
       <c r="E4">
-        <v>0.04570861260293668</v>
+        <v>0.1402362503645449</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4059014366559239</v>
+        <v>0.4259353308695566</v>
       </c>
       <c r="H4">
-        <v>0.3057106974850541</v>
+        <v>0.00732105856203541</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00286841943760141</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3760240720899048</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3450101331155615</v>
       </c>
       <c r="L4">
-        <v>0.244716529469116</v>
+        <v>0.06403649040577264</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6780391190650619</v>
       </c>
       <c r="N4">
-        <v>0.712960670471503</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.450225532641838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2958542871047172</v>
+      </c>
+      <c r="P4">
+        <v>0.9617022378036291</v>
+      </c>
+      <c r="Q4">
+        <v>1.63657786885733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.025568053754455</v>
+        <v>0.5819040198531127</v>
       </c>
       <c r="C5">
-        <v>0.2931569510230645</v>
+        <v>0.1110746713096233</v>
       </c>
       <c r="D5">
-        <v>0.1526691909172229</v>
+        <v>0.3687475642312279</v>
       </c>
       <c r="E5">
-        <v>0.04555961052377633</v>
+        <v>0.1366114347282341</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.396186061240229</v>
+        <v>0.4221220593707002</v>
       </c>
       <c r="H5">
-        <v>0.3028428904980416</v>
+        <v>0.007924334040932429</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003236091902686589</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3752256258348083</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3446468412279948</v>
       </c>
       <c r="L5">
-        <v>0.2355228316339719</v>
+        <v>0.06225455104005206</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6504756559452574</v>
       </c>
       <c r="N5">
-        <v>0.7185116119546819</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.423513073663486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2844944590464493</v>
+      </c>
+      <c r="P5">
+        <v>0.9690073695533474</v>
+      </c>
+      <c r="Q5">
+        <v>1.626750102077523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.011049067330248</v>
+        <v>0.5768953781401365</v>
       </c>
       <c r="C6">
-        <v>0.2920493575555696</v>
+        <v>0.1108417270410484</v>
       </c>
       <c r="D6">
-        <v>0.1515672284969725</v>
+        <v>0.3671448728128439</v>
       </c>
       <c r="E6">
-        <v>0.04553626530131183</v>
+        <v>0.1360033076935672</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3945876843695544</v>
+        <v>0.4210664901069663</v>
       </c>
       <c r="H6">
-        <v>0.3023760268206956</v>
+        <v>0.008030558086909889</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003398034028212926</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.374875728836038</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3442378493738474</v>
       </c>
       <c r="L6">
-        <v>0.2339994438449366</v>
+        <v>0.06195267628550738</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6459012471700873</v>
       </c>
       <c r="N6">
-        <v>0.7194478680674621</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.41912833908566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2826090624065145</v>
+      </c>
+      <c r="P6">
+        <v>0.9701411856776394</v>
+      </c>
+      <c r="Q6">
+        <v>1.623767424722814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.111859897808472</v>
+        <v>0.6052214269797105</v>
       </c>
       <c r="C7">
-        <v>0.2997340776554012</v>
+        <v>0.1160463809764281</v>
       </c>
       <c r="D7">
-        <v>0.1592277499311336</v>
+        <v>0.3782125043469335</v>
       </c>
       <c r="E7">
-        <v>0.04570650885060346</v>
+        <v>0.1401709219880338</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4057694040547375</v>
+        <v>0.4247181265394744</v>
       </c>
       <c r="H7">
-        <v>0.3056713901424786</v>
+        <v>0.007336396876707202</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003126927309334171</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3754115842443184</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3440467804844118</v>
       </c>
       <c r="L7">
-        <v>0.2445923204591907</v>
+        <v>0.06399722005066266</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6776784592906608</v>
       </c>
       <c r="N7">
-        <v>0.7130345537191189</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.449861833776083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2957035769615359</v>
+      </c>
+      <c r="P7">
+        <v>0.9615733407894007</v>
+      </c>
+      <c r="Q7">
+        <v>1.632713478578012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.557761525243563</v>
+        <v>0.7313928581794187</v>
       </c>
       <c r="C8">
-        <v>0.3335736725486953</v>
+        <v>0.1382179868166702</v>
       </c>
       <c r="D8">
-        <v>0.1933547096565462</v>
+        <v>0.4273742406716963</v>
       </c>
       <c r="E8">
-        <v>0.04666784201818075</v>
+        <v>0.1585655018432135</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4574027506052118</v>
+        <v>0.4426287790946333</v>
       </c>
       <c r="H8">
-        <v>0.321629616992837</v>
+        <v>0.004735415727917414</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002017776227432044</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3788428285657872</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3445060280626606</v>
       </c>
       <c r="L8">
-        <v>0.2918465590015416</v>
+        <v>0.07298694667268535</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8176746437525821</v>
       </c>
       <c r="N8">
-        <v>0.6868994096581247</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.593277944556689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3534877586194796</v>
+      </c>
+      <c r="P8">
+        <v>0.9251924885526792</v>
+      </c>
+      <c r="Q8">
+        <v>1.678216872379537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.438290287586995</v>
+        <v>0.9798272429430881</v>
       </c>
       <c r="C9">
-        <v>0.3997595733219725</v>
+        <v>0.1808557030619085</v>
       </c>
       <c r="D9">
-        <v>0.2617814979714979</v>
+        <v>0.5251024480699584</v>
       </c>
       <c r="E9">
-        <v>0.04938082296949986</v>
+        <v>0.1946872579182468</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.568249075654677</v>
+        <v>0.4825314176616473</v>
       </c>
       <c r="H9">
-        <v>0.358632242344072</v>
+        <v>0.001452347902520801</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007896613531546137</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3885064483572336</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3485799918758481</v>
       </c>
       <c r="L9">
-        <v>0.3867867027591814</v>
+        <v>0.09052595357738369</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.0916944225404</v>
       </c>
       <c r="N9">
-        <v>0.643985724612385</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.906712765442705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4669592011604564</v>
+      </c>
+      <c r="P9">
+        <v>0.8586813433114342</v>
+      </c>
+      <c r="Q9">
+        <v>1.783669149603611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.091436985643838</v>
+        <v>1.158185505878095</v>
       </c>
       <c r="C10">
-        <v>0.4483745543803934</v>
+        <v>0.2122522006768008</v>
       </c>
       <c r="D10">
-        <v>0.3133247221287405</v>
+        <v>0.5862739232055958</v>
       </c>
       <c r="E10">
-        <v>0.05195199737863376</v>
+        <v>0.2133071008022966</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6569219477509449</v>
+        <v>0.5071239690574885</v>
       </c>
       <c r="H10">
-        <v>0.3899272695157379</v>
+        <v>0.0005226945012997142</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009251108953041154</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.393538996639677</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3490873088347151</v>
       </c>
       <c r="L10">
-        <v>0.4583817919458113</v>
+        <v>0.09747430421838743</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.289575373329626</v>
       </c>
       <c r="N10">
-        <v>0.6180992960705041</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.160876762906895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5397267639036158</v>
+      </c>
+      <c r="P10">
+        <v>0.8126863301622347</v>
+      </c>
+      <c r="Q10">
+        <v>1.846762835110013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.390525210008263</v>
+        <v>1.221512242044327</v>
       </c>
       <c r="C11">
-        <v>0.4705116489502643</v>
+        <v>0.2162727890472951</v>
       </c>
       <c r="D11">
-        <v>0.3371332933526929</v>
+        <v>0.5166638894477842</v>
       </c>
       <c r="E11">
-        <v>0.05326456324381823</v>
+        <v>0.1586802657000277</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6991641385437362</v>
+        <v>0.46547323899064</v>
       </c>
       <c r="H11">
-        <v>0.4052072086845726</v>
+        <v>0.01913042044659363</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001529332333583433</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.369408819853362</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3227169347697334</v>
       </c>
       <c r="L11">
-        <v>0.4914617842647004</v>
+        <v>0.05991413625729081</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.349251715137228</v>
       </c>
       <c r="N11">
-        <v>0.6076817231890885</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.282707877016634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4812126650482682</v>
+      </c>
+      <c r="P11">
+        <v>0.7959453956297384</v>
+      </c>
+      <c r="Q11">
+        <v>1.708095695515652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.504118597223112</v>
+        <v>1.240429864706698</v>
       </c>
       <c r="C12">
-        <v>0.4788995962983051</v>
+        <v>0.2111060411906038</v>
       </c>
       <c r="D12">
-        <v>0.3462084368178751</v>
+        <v>0.4490303299065204</v>
       </c>
       <c r="E12">
-        <v>0.0537837024628196</v>
+        <v>0.1170987968672428</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7154638419861357</v>
+        <v>0.4278844566886448</v>
       </c>
       <c r="H12">
-        <v>0.4111569768172956</v>
+        <v>0.05791478656583138</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001543558017147006</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3492065523669652</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3024562825101391</v>
       </c>
       <c r="L12">
-        <v>0.5040715405312568</v>
+        <v>0.04115850033166524</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.357214202619332</v>
       </c>
       <c r="N12">
-        <v>0.6039442827062729</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.329826903483649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4197783219820579</v>
+      </c>
+      <c r="P12">
+        <v>0.7958189555992767</v>
+      </c>
+      <c r="Q12">
+        <v>1.586157599623334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.479638447036962</v>
+        <v>1.222884415384698</v>
       </c>
       <c r="C13">
-        <v>0.4770928411639659</v>
+        <v>0.2004010965154066</v>
       </c>
       <c r="D13">
-        <v>0.3442511787532254</v>
+        <v>0.3792803213649165</v>
       </c>
       <c r="E13">
-        <v>0.05367088791060581</v>
+        <v>0.08322948609341552</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7119394145378095</v>
+        <v>0.3893950770370935</v>
       </c>
       <c r="H13">
-        <v>0.4098680860278563</v>
+        <v>0.1138661427312542</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001453247814023229</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3298724572762737</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2841702409123066</v>
       </c>
       <c r="L13">
-        <v>0.5013519481241673</v>
+        <v>0.03559009601212537</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.325776510013128</v>
       </c>
       <c r="N13">
-        <v>0.6047397774367838</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.319633678178008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3529624012502168</v>
+      </c>
+      <c r="P13">
+        <v>0.8074791104001626</v>
+      </c>
+      <c r="Q13">
+        <v>1.464047954691949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.399863575529082</v>
+        <v>1.193504133781119</v>
       </c>
       <c r="C14">
-        <v>0.4712016160847838</v>
+        <v>0.1908023136696215</v>
       </c>
       <c r="D14">
-        <v>0.337878676967776</v>
+        <v>0.3304798234560593</v>
       </c>
       <c r="E14">
-        <v>0.05330682100281692</v>
+        <v>0.06429892102571877</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7004988644442989</v>
+        <v>0.3621190268430752</v>
       </c>
       <c r="H14">
-        <v>0.4056933401024594</v>
+        <v>0.1634055661801312</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001437254304978097</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3167311943866338</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2722102370572728</v>
       </c>
       <c r="L14">
-        <v>0.4924974738348169</v>
+        <v>0.03950034496837418</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.286045979821296</v>
       </c>
       <c r="N14">
-        <v>0.6073700110597784</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.286564115376393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3046728132881356</v>
+      </c>
+      <c r="P14">
+        <v>0.8213229879684789</v>
+      </c>
+      <c r="Q14">
+        <v>1.37864930416842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.351044430472882</v>
+        <v>1.1777768960755</v>
       </c>
       <c r="C15">
-        <v>0.4675937976224702</v>
+        <v>0.187738926610109</v>
       </c>
       <c r="D15">
-        <v>0.3339832942996708</v>
+        <v>0.317726649109602</v>
       </c>
       <c r="E15">
-        <v>0.05308674517347001</v>
+        <v>0.06027041383530829</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.693531640484963</v>
+        <v>0.3548481806086983</v>
       </c>
       <c r="H15">
-        <v>0.4031579100357874</v>
+        <v>0.1760031135507489</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001532680203899517</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3135091642816121</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2693736923606345</v>
       </c>
       <c r="L15">
-        <v>0.4870849696399659</v>
+        <v>0.04135940749539202</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.268095701602334</v>
       </c>
       <c r="N15">
-        <v>0.6090084989284676</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.26643905248136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2914564860531641</v>
+      </c>
+      <c r="P15">
+        <v>0.82673733869008</v>
+      </c>
+      <c r="Q15">
+        <v>1.356456389406347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.071934836624621</v>
+        <v>1.103584862649285</v>
       </c>
       <c r="C16">
-        <v>0.4469284471006176</v>
+        <v>0.1772679821955165</v>
       </c>
       <c r="D16">
-        <v>0.3117766664808812</v>
+        <v>0.3072215076681317</v>
       </c>
       <c r="E16">
-        <v>0.05186922394027071</v>
+        <v>0.06004082791336174</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6542021271709189</v>
+        <v>0.3516807184146415</v>
       </c>
       <c r="H16">
-        <v>0.3889508224419984</v>
+        <v>0.1637230407751673</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001590209450299085</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3149148161806465</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2722692882620308</v>
       </c>
       <c r="L16">
-        <v>0.4562310235762652</v>
+        <v>0.03964222579026355</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.189877955586979</v>
       </c>
       <c r="N16">
-        <v>0.6188084601722537</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.153047422397691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2756806753320298</v>
+      </c>
+      <c r="P16">
+        <v>0.8418849371547559</v>
+      </c>
+      <c r="Q16">
+        <v>1.352509430657918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.901250088230199</v>
+        <v>1.062268723006042</v>
       </c>
       <c r="C17">
-        <v>0.4342578677789959</v>
+        <v>0.1743744538437113</v>
       </c>
       <c r="D17">
-        <v>0.2982512528165699</v>
+        <v>0.3244565500250474</v>
       </c>
       <c r="E17">
-        <v>0.05115998823715096</v>
+        <v>0.06901900748309941</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6305829197312391</v>
+        <v>0.3635907837478598</v>
       </c>
       <c r="H17">
-        <v>0.3805118376531169</v>
+        <v>0.1261991331679724</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001677185129005387</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3229428237914931</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2807757181265025</v>
       </c>
       <c r="L17">
-        <v>0.4374406142704004</v>
+        <v>0.03495958220888795</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.151038064460636</v>
       </c>
       <c r="N17">
-        <v>0.6251766856627796</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.085138737787645</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2885895460926733</v>
+      </c>
+      <c r="P17">
+        <v>0.8462595620122606</v>
+      </c>
+      <c r="Q17">
+        <v>1.394464526761212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.803258660967344</v>
+        <v>1.046162376691399</v>
       </c>
       <c r="C18">
-        <v>0.4269720180875538</v>
+        <v>0.1767354258600591</v>
       </c>
       <c r="D18">
-        <v>0.2905053256410781</v>
+        <v>0.3698169454836489</v>
       </c>
       <c r="E18">
-        <v>0.05076540882020275</v>
+        <v>0.09120736562227094</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6171751303757702</v>
+        <v>0.391234440878911</v>
       </c>
       <c r="H18">
-        <v>0.3757553252599308</v>
+        <v>0.07336714547196976</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00147015026146935</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3382152625603823</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2960851212461044</v>
       </c>
       <c r="L18">
-        <v>0.426680351786402</v>
+        <v>0.03416480387154119</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.14137291052262</v>
       </c>
       <c r="N18">
-        <v>0.628966592648176</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.046658183278851</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3295979743994906</v>
+      </c>
+      <c r="P18">
+        <v>0.8434784020534671</v>
+      </c>
+      <c r="Q18">
+        <v>1.484997307357688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.770110173582623</v>
+        <v>1.047481423340685</v>
       </c>
       <c r="C19">
-        <v>0.4245054297982449</v>
+        <v>0.1853289086470937</v>
       </c>
       <c r="D19">
-        <v>0.2878882304373747</v>
+        <v>0.4383172319920163</v>
       </c>
       <c r="E19">
-        <v>0.05063405919125685</v>
+        <v>0.1288976651660718</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6126650767529185</v>
+        <v>0.4289028694145145</v>
       </c>
       <c r="H19">
-        <v>0.3741611799148785</v>
+        <v>0.0278005979960767</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001573954120227761</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3577408161787829</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.315006418355388</v>
       </c>
       <c r="L19">
-        <v>0.4230449865810471</v>
+        <v>0.04691329492738738</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.155762904470436</v>
       </c>
       <c r="N19">
-        <v>0.6302712585423151</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.033726058866819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3935688184029473</v>
+      </c>
+      <c r="P19">
+        <v>0.838392398684217</v>
+      </c>
+      <c r="Q19">
+        <v>1.605736914637646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.91940057839264</v>
+        <v>1.104898663506987</v>
       </c>
       <c r="C20">
-        <v>0.4356064589817663</v>
+        <v>0.2075077820868216</v>
       </c>
       <c r="D20">
-        <v>0.2996875337753266</v>
+        <v>0.5696070840498351</v>
       </c>
       <c r="E20">
-        <v>0.05123409461294415</v>
+        <v>0.2080335220442748</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6330786615642836</v>
+        <v>0.4966929073572857</v>
       </c>
       <c r="H20">
-        <v>0.3814000101222064</v>
+        <v>0.0006751878330599759</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001604949324381266</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.390173503732882</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3458487538261714</v>
       </c>
       <c r="L20">
-        <v>0.4394359038108178</v>
+        <v>0.09534951877139264</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.237488204173872</v>
       </c>
       <c r="N20">
-        <v>0.6244855404435015</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.092307198957883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5201628029271035</v>
+      </c>
+      <c r="P20">
+        <v>0.8242492300081725</v>
+      </c>
+      <c r="Q20">
+        <v>1.817493775170419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.423285856397342</v>
+        <v>1.24512250126088</v>
       </c>
       <c r="C21">
-        <v>0.4729318564104972</v>
+        <v>0.2333765295194894</v>
       </c>
       <c r="D21">
-        <v>0.3397487626408093</v>
+        <v>0.6348700969934953</v>
       </c>
       <c r="E21">
-        <v>0.05341314366093997</v>
+        <v>0.2347341186169061</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7038507468550534</v>
+        <v>0.5263652415146254</v>
       </c>
       <c r="H21">
-        <v>0.4069150116792173</v>
+        <v>4.497245260370875E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001861862670019754</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3995299051563137</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3518588596115855</v>
       </c>
       <c r="L21">
-        <v>0.4950959126244925</v>
+        <v>0.1098512943607801</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.394736190716173</v>
       </c>
       <c r="N21">
-        <v>0.6065917159276637</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.296249974900775</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5928854975867779</v>
+      </c>
+      <c r="P21">
+        <v>0.7901490157548654</v>
+      </c>
+      <c r="Q21">
+        <v>1.900307375762821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.75458492484745</v>
+        <v>1.338418378489024</v>
       </c>
       <c r="C22">
-        <v>0.4973569999911547</v>
+        <v>0.2482685621622807</v>
       </c>
       <c r="D22">
-        <v>0.3662808931868398</v>
+        <v>0.6718897909709085</v>
       </c>
       <c r="E22">
-        <v>0.05496688446664422</v>
+        <v>0.2481702478148051</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.75188886429018</v>
+        <v>0.5446057391661583</v>
       </c>
       <c r="H22">
-        <v>0.4245510803570909</v>
+        <v>1.18862596998337E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00191881997712251</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4051295903315832</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3556772165511255</v>
       </c>
       <c r="L22">
-        <v>0.5319622023464063</v>
+        <v>0.1163452534591727</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.495857281521239</v>
       </c>
       <c r="N22">
-        <v>0.5961126249094448</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.435322628608418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6349956647946371</v>
+      </c>
+      <c r="P22">
+        <v>0.7685352660604829</v>
+      </c>
+      <c r="Q22">
+        <v>1.950901348243121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.577564783965727</v>
+        <v>1.29111430439869</v>
       </c>
       <c r="C23">
-        <v>0.4843173197522219</v>
+        <v>0.2389179921386813</v>
       </c>
       <c r="D23">
-        <v>0.3520855976147601</v>
+        <v>0.6521295135668197</v>
       </c>
       <c r="E23">
-        <v>0.05412522541443821</v>
+        <v>0.2410119739077174</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7260763423300034</v>
+        <v>0.5361874679756937</v>
       </c>
       <c r="H23">
-        <v>0.4150457509819176</v>
+        <v>3.64891039605908E-06</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001573192001274926</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4028072994902061</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3547190317055389</v>
       </c>
       <c r="L23">
-        <v>0.5122378362056139</v>
+        <v>0.1128945628101121</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.441871408955421</v>
       </c>
       <c r="N23">
-        <v>0.6015900457590106</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.36053571026963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6125110191215768</v>
+      </c>
+      <c r="P23">
+        <v>0.7801018198366441</v>
+      </c>
+      <c r="Q23">
+        <v>1.928086253751871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.911194317369905</v>
+        <v>1.107642714099995</v>
       </c>
       <c r="C24">
-        <v>0.4349967652959776</v>
+        <v>0.2060984871648799</v>
       </c>
       <c r="D24">
-        <v>0.2990380982219989</v>
+        <v>0.5777586837530464</v>
       </c>
       <c r="E24">
-        <v>0.0512005502156434</v>
+        <v>0.2139509024717086</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.631949805622483</v>
+        <v>0.5030785770263861</v>
       </c>
       <c r="H24">
-        <v>0.3809981719172413</v>
+        <v>0.0005168613770387687</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001117459719854885</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3934759463052018</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3498175091352351</v>
       </c>
       <c r="L24">
-        <v>0.4385337014550714</v>
+        <v>0.09982822308082007</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.237636906742267</v>
       </c>
       <c r="N24">
-        <v>0.6247976071425398</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.089064596917012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5275526374169672</v>
+      </c>
+      <c r="P24">
+        <v>0.8250100581855762</v>
+      </c>
+      <c r="Q24">
+        <v>1.837943935894941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.199182626137826</v>
+        <v>0.909160532316605</v>
       </c>
       <c r="C25">
-        <v>0.3818639107245474</v>
+        <v>0.1712573502462362</v>
       </c>
       <c r="D25">
-        <v>0.2430741688906153</v>
+        <v>0.4984708996338156</v>
       </c>
       <c r="E25">
-        <v>0.04855097369549455</v>
+        <v>0.1848791309972704</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5370977813715427</v>
+        <v>0.4693284342535549</v>
       </c>
       <c r="H25">
-        <v>0.3479485587258324</v>
+        <v>0.002137669939136555</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001400140347247891</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3846101531361086</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3456047944465261</v>
       </c>
       <c r="L25">
-        <v>0.3608141756912602</v>
+        <v>0.08576198079789776</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.017599408143184</v>
       </c>
       <c r="N25">
-        <v>0.6546469873161698</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.818051621296632</v>
+        <v>0.4362314820107258</v>
+      </c>
+      <c r="P25">
+        <v>0.8759227138259389</v>
+      </c>
+      <c r="Q25">
+        <v>1.74735756021775</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7682831063773961</v>
+        <v>0.7373795056818437</v>
       </c>
       <c r="C2">
-        <v>0.1426950791621522</v>
+        <v>0.156772162243584</v>
       </c>
       <c r="D2">
-        <v>0.440802823512243</v>
+        <v>0.4420341602843507</v>
       </c>
       <c r="E2">
-        <v>0.1635706411922904</v>
+        <v>0.1645312939546635</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4492940665470968</v>
+        <v>0.4063548172391833</v>
       </c>
       <c r="H2">
-        <v>0.00414206045618859</v>
+        <v>0.003783359762635219</v>
       </c>
       <c r="I2">
-        <v>0.001485053621579802</v>
+        <v>0.001095757988331059</v>
       </c>
       <c r="J2">
-        <v>0.3807367718266477</v>
+        <v>0.3896479512309767</v>
       </c>
       <c r="K2">
-        <v>0.3460688535189433</v>
+        <v>0.3160652753896933</v>
       </c>
       <c r="L2">
-        <v>0.07543392317440478</v>
+        <v>0.158985166216894</v>
       </c>
       <c r="M2">
-        <v>0.8555490339874723</v>
+        <v>0.08497170504228002</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07636843039545838</v>
       </c>
       <c r="O2">
-        <v>0.3691470524358493</v>
+        <v>0.8575641209762637</v>
       </c>
       <c r="P2">
-        <v>0.9158872838081571</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.696403707564386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3698354336232654</v>
+      </c>
+      <c r="R2">
+        <v>0.8923161762975305</v>
+      </c>
+      <c r="S2">
+        <v>1.602588285774189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6689324410468203</v>
+        <v>0.6455786719804451</v>
       </c>
       <c r="C3">
-        <v>0.1254345786037447</v>
+        <v>0.1350353415868284</v>
       </c>
       <c r="D3">
-        <v>0.4020272443467832</v>
+        <v>0.4034946707756575</v>
       </c>
       <c r="E3">
-        <v>0.1491149797959253</v>
+        <v>0.1502609311203571</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4346240326648072</v>
+        <v>0.395871101667943</v>
       </c>
       <c r="H3">
-        <v>0.005976366586593174</v>
+        <v>0.005467190570241032</v>
       </c>
       <c r="I3">
-        <v>0.002243721485276851</v>
+        <v>0.001592505846572223</v>
       </c>
       <c r="J3">
-        <v>0.3776766555104345</v>
+        <v>0.385163719701211</v>
       </c>
       <c r="K3">
-        <v>0.3453027066999717</v>
+        <v>0.3170732481122194</v>
       </c>
       <c r="L3">
-        <v>0.06838423275396011</v>
+        <v>0.1632764904567985</v>
       </c>
       <c r="M3">
-        <v>0.7456224948000454</v>
+        <v>0.08291599019928242</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06947943386136402</v>
       </c>
       <c r="O3">
-        <v>0.3237320170392906</v>
+        <v>0.7476909329124339</v>
       </c>
       <c r="P3">
-        <v>0.9439312026402895</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.658629315098892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.324401571690565</v>
+      </c>
+      <c r="R3">
+        <v>0.9180419195574565</v>
+      </c>
+      <c r="S3">
+        <v>1.573425041173479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6075906476399666</v>
+        <v>0.5887295381895399</v>
       </c>
       <c r="C4">
-        <v>0.1149714044176449</v>
+        <v>0.1219268801777815</v>
       </c>
       <c r="D4">
-        <v>0.3783636093858007</v>
+        <v>0.3799790882826386</v>
       </c>
       <c r="E4">
-        <v>0.1402362503645449</v>
+        <v>0.1414976557769911</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4259353308695566</v>
+        <v>0.3897575454642208</v>
       </c>
       <c r="H4">
-        <v>0.00732105856203541</v>
+        <v>0.006702680584400378</v>
       </c>
       <c r="I4">
-        <v>0.00286841943760141</v>
+        <v>0.002032577224822418</v>
       </c>
       <c r="J4">
-        <v>0.3760240720899048</v>
+        <v>0.3824713783180087</v>
       </c>
       <c r="K4">
-        <v>0.3450101331155615</v>
+        <v>0.3178003049582969</v>
       </c>
       <c r="L4">
-        <v>0.06403649040577264</v>
+        <v>0.165997080750973</v>
       </c>
       <c r="M4">
-        <v>0.6780391190650619</v>
+        <v>0.08215407399460517</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06522798870178192</v>
       </c>
       <c r="O4">
-        <v>0.2958542871047172</v>
+        <v>0.6801136629935201</v>
       </c>
       <c r="P4">
-        <v>0.9617022378036291</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.63657786885733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2965044857458281</v>
+      </c>
+      <c r="R4">
+        <v>0.9344013458457292</v>
+      </c>
+      <c r="S4">
+        <v>1.556364136078713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5819040198531127</v>
+        <v>0.5648487520612093</v>
       </c>
       <c r="C5">
-        <v>0.1110746713096233</v>
+        <v>0.1170032971299833</v>
       </c>
       <c r="D5">
-        <v>0.3687475642312279</v>
+        <v>0.3704244842746931</v>
       </c>
       <c r="E5">
-        <v>0.1366114347282341</v>
+        <v>0.1379205016109424</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4221220593707002</v>
+        <v>0.3870086208961254</v>
       </c>
       <c r="H5">
-        <v>0.007924334040932429</v>
+        <v>0.007257228685268846</v>
       </c>
       <c r="I5">
-        <v>0.003236091902686589</v>
+        <v>0.002331276490044054</v>
       </c>
       <c r="J5">
-        <v>0.3752256258348083</v>
+        <v>0.3812053591371836</v>
       </c>
       <c r="K5">
-        <v>0.3446468412279948</v>
+        <v>0.3178507859172512</v>
       </c>
       <c r="L5">
-        <v>0.06225455104005206</v>
+        <v>0.1669859363180457</v>
       </c>
       <c r="M5">
-        <v>0.6504756559452574</v>
+        <v>0.08190471548140366</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06348486866061975</v>
       </c>
       <c r="O5">
-        <v>0.2844944590464493</v>
+        <v>0.6525469905494674</v>
       </c>
       <c r="P5">
-        <v>0.9690073695533474</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.626750102077523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2851350832128219</v>
+      </c>
+      <c r="R5">
+        <v>0.941157859741117</v>
+      </c>
+      <c r="S5">
+        <v>1.548526082747443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5768953781401365</v>
+        <v>0.5601505580154935</v>
       </c>
       <c r="C6">
-        <v>0.1108417270410484</v>
+        <v>0.1166329762716742</v>
       </c>
       <c r="D6">
-        <v>0.3671448728128439</v>
+        <v>0.3688322843257623</v>
       </c>
       <c r="E6">
-        <v>0.1360033076935672</v>
+        <v>0.1373204682884754</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4210664901069663</v>
+        <v>0.3861473097686812</v>
       </c>
       <c r="H6">
-        <v>0.008030558086909889</v>
+        <v>0.007354902133838187</v>
       </c>
       <c r="I6">
-        <v>0.003398034028212926</v>
+        <v>0.002497612923679782</v>
       </c>
       <c r="J6">
-        <v>0.374875728836038</v>
+        <v>0.3807714629365151</v>
       </c>
       <c r="K6">
-        <v>0.3442378493738474</v>
+        <v>0.3175286165366593</v>
       </c>
       <c r="L6">
-        <v>0.06195267628550738</v>
+        <v>0.1669794697406601</v>
       </c>
       <c r="M6">
-        <v>0.6459012471700873</v>
+        <v>0.08179176116675713</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06318951069265921</v>
       </c>
       <c r="O6">
-        <v>0.2826090624065145</v>
+        <v>0.6479720471770918</v>
       </c>
       <c r="P6">
-        <v>0.9701411856776394</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.623767424722814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2832480424948187</v>
+      </c>
+      <c r="R6">
+        <v>0.9422299092821795</v>
+      </c>
+      <c r="S6">
+        <v>1.545905325449851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6052214269797105</v>
+        <v>0.5860960320585491</v>
       </c>
       <c r="C7">
-        <v>0.1160463809764281</v>
+        <v>0.1227925153137051</v>
       </c>
       <c r="D7">
-        <v>0.3782125043469335</v>
+        <v>0.3798440972486929</v>
       </c>
       <c r="E7">
-        <v>0.1401709219880338</v>
+        <v>0.1414422801159922</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4247181265394744</v>
+        <v>0.3911962853068616</v>
       </c>
       <c r="H7">
-        <v>0.007336396876707202</v>
+        <v>0.006722147671781364</v>
       </c>
       <c r="I7">
-        <v>0.003126927309334171</v>
+        <v>0.002334949480585991</v>
       </c>
       <c r="J7">
-        <v>0.3754115842443184</v>
+        <v>0.3779596236742293</v>
       </c>
       <c r="K7">
-        <v>0.3440467804844118</v>
+        <v>0.3165668107646695</v>
       </c>
       <c r="L7">
-        <v>0.06399722005066266</v>
+        <v>0.1653880580531961</v>
       </c>
       <c r="M7">
-        <v>0.6776784592906608</v>
+        <v>0.08183928597295242</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06519395093815561</v>
       </c>
       <c r="O7">
-        <v>0.2957035769615359</v>
+        <v>0.6790671351512003</v>
       </c>
       <c r="P7">
-        <v>0.9615733407894007</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.632713478578012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2961962018661666</v>
+      </c>
+      <c r="R7">
+        <v>0.9343000822446008</v>
+      </c>
+      <c r="S7">
+        <v>1.550328117485549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7313928581794187</v>
+        <v>0.7020902001152933</v>
       </c>
       <c r="C8">
-        <v>0.1382179868166702</v>
+        <v>0.1498995684447948</v>
       </c>
       <c r="D8">
-        <v>0.4273742406716963</v>
+        <v>0.4287396769944678</v>
       </c>
       <c r="E8">
-        <v>0.1585655018432135</v>
+        <v>0.1596228294874429</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4426287790946333</v>
+        <v>0.4098878269198423</v>
       </c>
       <c r="H8">
-        <v>0.004735415727917414</v>
+        <v>0.004341036121710995</v>
       </c>
       <c r="I8">
-        <v>0.002017776227432044</v>
+        <v>0.001602373436075055</v>
       </c>
       <c r="J8">
-        <v>0.3788428285657872</v>
+        <v>0.3746460201922872</v>
       </c>
       <c r="K8">
-        <v>0.3445060280626606</v>
+        <v>0.3141336216007105</v>
       </c>
       <c r="L8">
-        <v>0.07298694667268535</v>
+        <v>0.1594109744136034</v>
       </c>
       <c r="M8">
-        <v>0.8176746437525821</v>
+        <v>0.08348835709447933</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07399460434258742</v>
       </c>
       <c r="O8">
-        <v>0.3534877586194796</v>
+        <v>0.8174105335293405</v>
       </c>
       <c r="P8">
-        <v>0.9251924885526792</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.678216872379537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3536427780454687</v>
+      </c>
+      <c r="R8">
+        <v>0.9008702235211317</v>
+      </c>
+      <c r="S8">
+        <v>1.579996911688326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9798272429430881</v>
+        <v>0.9304948695663313</v>
       </c>
       <c r="C9">
-        <v>0.1808557030619085</v>
+        <v>0.2039038327367706</v>
       </c>
       <c r="D9">
-        <v>0.5251024480699584</v>
+        <v>0.5259082910942254</v>
       </c>
       <c r="E9">
-        <v>0.1946872579182468</v>
+        <v>0.1953012467506454</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4825314176616473</v>
+        <v>0.4417571795067516</v>
       </c>
       <c r="H9">
-        <v>0.001452347902520801</v>
+        <v>0.001327749561218949</v>
       </c>
       <c r="I9">
-        <v>0.0007896613531546137</v>
+        <v>0.0008309848363650119</v>
       </c>
       <c r="J9">
-        <v>0.3885064483572336</v>
+        <v>0.3834613330203851</v>
       </c>
       <c r="K9">
-        <v>0.3485799918758481</v>
+        <v>0.3130501903661838</v>
       </c>
       <c r="L9">
-        <v>0.09052595357738369</v>
+        <v>0.1496943548621168</v>
       </c>
       <c r="M9">
-        <v>1.0916944225404</v>
+        <v>0.09149350600348782</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.0911223762305795</v>
       </c>
       <c r="O9">
-        <v>0.4669592011604564</v>
+        <v>1.09043264701441</v>
       </c>
       <c r="P9">
-        <v>0.8586813433114342</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.783669149603611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4669503365645298</v>
+      </c>
+      <c r="R9">
+        <v>0.840231958927399</v>
+      </c>
+      <c r="S9">
+        <v>1.660088591595212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.158185505878095</v>
+        <v>1.092099205452769</v>
       </c>
       <c r="C10">
-        <v>0.2122522006768008</v>
+        <v>0.2419775985385115</v>
       </c>
       <c r="D10">
-        <v>0.5862739232055958</v>
+        <v>0.5867805115397289</v>
       </c>
       <c r="E10">
-        <v>0.2133071008022966</v>
+        <v>0.2136677306455397</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5071239690574885</v>
+        <v>0.4767556234285877</v>
       </c>
       <c r="H10">
-        <v>0.0005226945012997142</v>
+        <v>0.0004988697325516434</v>
       </c>
       <c r="I10">
-        <v>0.0009251108953041154</v>
+        <v>0.001178057138711885</v>
       </c>
       <c r="J10">
-        <v>0.393538996639677</v>
+        <v>0.366575670890299</v>
       </c>
       <c r="K10">
-        <v>0.3490873088347151</v>
+        <v>0.3081826171793942</v>
       </c>
       <c r="L10">
-        <v>0.09747430421838743</v>
+        <v>0.1413207973914936</v>
       </c>
       <c r="M10">
-        <v>1.289575373329626</v>
+        <v>0.09793367376952489</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.09778621764011319</v>
       </c>
       <c r="O10">
-        <v>0.5397267639036158</v>
+        <v>1.28322523287892</v>
       </c>
       <c r="P10">
-        <v>0.8126863301622347</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.846762835110013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.53859014417705</v>
+      </c>
+      <c r="R10">
+        <v>0.799518600734066</v>
+      </c>
+      <c r="S10">
+        <v>1.69198848163748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.221512242044327</v>
+        <v>1.150140944406814</v>
       </c>
       <c r="C11">
-        <v>0.2162727890472951</v>
+        <v>0.2419012045473465</v>
       </c>
       <c r="D11">
-        <v>0.5166638894477842</v>
+        <v>0.5172573725169798</v>
       </c>
       <c r="E11">
-        <v>0.1586802657000277</v>
+        <v>0.1590333310919085</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.46547323899064</v>
+        <v>0.4702774133007495</v>
       </c>
       <c r="H11">
-        <v>0.01913042044659363</v>
+        <v>0.01912449112798598</v>
       </c>
       <c r="I11">
-        <v>0.001529332333583433</v>
+        <v>0.001906976846396624</v>
       </c>
       <c r="J11">
-        <v>0.369408819853362</v>
+        <v>0.3087255052868016</v>
       </c>
       <c r="K11">
-        <v>0.3227169347697334</v>
+        <v>0.2815115973450375</v>
       </c>
       <c r="L11">
-        <v>0.05991413625729081</v>
+        <v>0.1293260519864106</v>
       </c>
       <c r="M11">
-        <v>1.349251715137228</v>
+        <v>0.09099014864688115</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06009887784798806</v>
       </c>
       <c r="O11">
-        <v>0.4812126650482682</v>
+        <v>1.333394888584422</v>
       </c>
       <c r="P11">
-        <v>0.7959453956297384</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.708095695515652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4781698389105742</v>
+      </c>
+      <c r="R11">
+        <v>0.7923780428893679</v>
+      </c>
+      <c r="S11">
+        <v>1.537116814329153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.240429864706698</v>
+        <v>1.169420600303027</v>
       </c>
       <c r="C12">
-        <v>0.2111060411906038</v>
+        <v>0.2328021007691063</v>
       </c>
       <c r="D12">
-        <v>0.4490303299065204</v>
+        <v>0.4496708234651692</v>
       </c>
       <c r="E12">
-        <v>0.1170987968672428</v>
+        <v>0.1174173505438176</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4278844566886448</v>
+        <v>0.4487577162758498</v>
       </c>
       <c r="H12">
-        <v>0.05791478656583138</v>
+        <v>0.05791433430141524</v>
       </c>
       <c r="I12">
-        <v>0.001543558017147006</v>
+        <v>0.00191989028237316</v>
       </c>
       <c r="J12">
-        <v>0.3492065523669652</v>
+        <v>0.2804922452502439</v>
       </c>
       <c r="K12">
-        <v>0.3024562825101391</v>
+        <v>0.2632792027606108</v>
       </c>
       <c r="L12">
-        <v>0.04115850033166524</v>
+        <v>0.1223392060332333</v>
       </c>
       <c r="M12">
-        <v>1.357214202619332</v>
+        <v>0.08470401918961556</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04121302422546691</v>
       </c>
       <c r="O12">
-        <v>0.4197783219820579</v>
+        <v>1.336993382276347</v>
       </c>
       <c r="P12">
-        <v>0.7958189555992767</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.586157599623334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4160941774864568</v>
+      </c>
+      <c r="R12">
+        <v>0.799235954450257</v>
+      </c>
+      <c r="S12">
+        <v>1.417218275207816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.222884415384698</v>
+        <v>1.15766543883089</v>
       </c>
       <c r="C13">
-        <v>0.2004010965154066</v>
+        <v>0.2189608295545042</v>
       </c>
       <c r="D13">
-        <v>0.3792803213649165</v>
+        <v>0.3798984889520653</v>
       </c>
       <c r="E13">
-        <v>0.08322948609341552</v>
+        <v>0.08350014161582919</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3893950770370935</v>
+        <v>0.4067872618483221</v>
       </c>
       <c r="H13">
-        <v>0.1138661427312542</v>
+        <v>0.1138561646067302</v>
       </c>
       <c r="I13">
-        <v>0.001453247814023229</v>
+        <v>0.001812707876409192</v>
       </c>
       <c r="J13">
-        <v>0.3298724572762737</v>
+        <v>0.2720107349227732</v>
       </c>
       <c r="K13">
-        <v>0.2841702409123066</v>
+        <v>0.2493746859941091</v>
       </c>
       <c r="L13">
-        <v>0.03559009601212537</v>
+        <v>0.117939516740373</v>
       </c>
       <c r="M13">
-        <v>1.325776510013128</v>
+        <v>0.07842886470105626</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03557162959696747</v>
       </c>
       <c r="O13">
-        <v>0.3529624012502168</v>
+        <v>1.306802826081395</v>
       </c>
       <c r="P13">
-        <v>0.8074791104001626</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.464047954691949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3497686254067958</v>
+      </c>
+      <c r="R13">
+        <v>0.8147603133412673</v>
+      </c>
+      <c r="S13">
+        <v>1.314583636887534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.193504133781119</v>
+        <v>1.13474382723183</v>
       </c>
       <c r="C14">
-        <v>0.1908023136696215</v>
+        <v>0.2074978316393441</v>
       </c>
       <c r="D14">
-        <v>0.3304798234560593</v>
+        <v>0.3310607631416502</v>
       </c>
       <c r="E14">
-        <v>0.06429892102571877</v>
+        <v>0.06455118991617681</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3621190268430752</v>
+        <v>0.3698013717551092</v>
       </c>
       <c r="H14">
-        <v>0.1634055661801312</v>
+        <v>0.1633780501585562</v>
       </c>
       <c r="I14">
-        <v>0.001437254304978097</v>
+        <v>0.001789063223360365</v>
       </c>
       <c r="J14">
-        <v>0.3167311943866338</v>
+        <v>0.2730114083236046</v>
       </c>
       <c r="K14">
-        <v>0.2722102370572728</v>
+        <v>0.2413014003974681</v>
       </c>
       <c r="L14">
-        <v>0.03950034496837418</v>
+        <v>0.1157909582723313</v>
       </c>
       <c r="M14">
-        <v>1.286045979821296</v>
+        <v>0.07406383866879374</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03949259605812294</v>
       </c>
       <c r="O14">
-        <v>0.3046728132881356</v>
+        <v>1.270351768924513</v>
       </c>
       <c r="P14">
-        <v>0.8213229879684789</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.37864930416842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3022130832346051</v>
+      </c>
+      <c r="R14">
+        <v>0.8293585990643138</v>
+      </c>
+      <c r="S14">
+        <v>1.24919512007132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.1777768960755</v>
+        <v>1.121659786969985</v>
       </c>
       <c r="C15">
-        <v>0.187738926610109</v>
+        <v>0.2041059993164964</v>
       </c>
       <c r="D15">
-        <v>0.317726649109602</v>
+        <v>0.3182941631238947</v>
       </c>
       <c r="E15">
-        <v>0.06027041383530829</v>
+        <v>0.06052928441274119</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3548481806086983</v>
+        <v>0.3572794586852197</v>
       </c>
       <c r="H15">
-        <v>0.1760031135507489</v>
+        <v>0.1759657182348633</v>
       </c>
       <c r="I15">
-        <v>0.001532680203899517</v>
+        <v>0.001898925446356614</v>
       </c>
       <c r="J15">
-        <v>0.3135091642816121</v>
+        <v>0.2761620929764064</v>
       </c>
       <c r="K15">
-        <v>0.2693736923606345</v>
+        <v>0.2398001891225938</v>
       </c>
       <c r="L15">
-        <v>0.04135940749539202</v>
+        <v>0.1155859307643858</v>
       </c>
       <c r="M15">
-        <v>1.268095701602334</v>
+        <v>0.07289987081952987</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04138599120312492</v>
       </c>
       <c r="O15">
-        <v>0.2914564860531641</v>
+        <v>1.254222945803718</v>
       </c>
       <c r="P15">
-        <v>0.82673733869008</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.356456389406347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2893356010647636</v>
+      </c>
+      <c r="R15">
+        <v>0.8341788324519044</v>
+      </c>
+      <c r="S15">
+        <v>1.234683610347631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.103584862649285</v>
+        <v>1.056642593822488</v>
       </c>
       <c r="C16">
-        <v>0.1772679821955165</v>
+        <v>0.1941035724457976</v>
       </c>
       <c r="D16">
-        <v>0.3072215076681317</v>
+        <v>0.3077756766015654</v>
       </c>
       <c r="E16">
-        <v>0.06004082791336174</v>
+        <v>0.06039618466673957</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3516807184146415</v>
+        <v>0.3305658562387066</v>
       </c>
       <c r="H16">
-        <v>0.1637230407751673</v>
+        <v>0.1636280870498723</v>
       </c>
       <c r="I16">
-        <v>0.001590209450299085</v>
+        <v>0.001916547883275221</v>
       </c>
       <c r="J16">
-        <v>0.3149148161806465</v>
+        <v>0.3043985341199047</v>
       </c>
       <c r="K16">
-        <v>0.2722692882620308</v>
+        <v>0.2459073478559475</v>
       </c>
       <c r="L16">
-        <v>0.03964222579026355</v>
+        <v>0.1193416072654117</v>
       </c>
       <c r="M16">
-        <v>1.189877955586979</v>
+        <v>0.07258932548086783</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03991912206000769</v>
       </c>
       <c r="O16">
-        <v>0.2756806753320298</v>
+        <v>1.184421249139888</v>
       </c>
       <c r="P16">
-        <v>0.8418849371547559</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.352509430657918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2749500094532067</v>
+      </c>
+      <c r="R16">
+        <v>0.8428500702273851</v>
+      </c>
+      <c r="S16">
+        <v>1.254714553097642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.062268723006042</v>
+        <v>1.018347021481162</v>
       </c>
       <c r="C17">
-        <v>0.1743744538437113</v>
+        <v>0.1921522001589295</v>
       </c>
       <c r="D17">
-        <v>0.3244565500250474</v>
+        <v>0.3250372134190371</v>
       </c>
       <c r="E17">
-        <v>0.06901900748309941</v>
+        <v>0.06944059473003605</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3635907837478598</v>
+        <v>0.3320878563272203</v>
       </c>
       <c r="H17">
-        <v>0.1261991331679724</v>
+        <v>0.1260688221393025</v>
       </c>
       <c r="I17">
-        <v>0.001677185129005387</v>
+        <v>0.001975626023748234</v>
       </c>
       <c r="J17">
-        <v>0.3229428237914931</v>
+        <v>0.3243201713915838</v>
       </c>
       <c r="K17">
-        <v>0.2807757181265025</v>
+        <v>0.2546936802823403</v>
       </c>
       <c r="L17">
-        <v>0.03495958220888795</v>
+        <v>0.1235559515969982</v>
       </c>
       <c r="M17">
-        <v>1.151038064460636</v>
+        <v>0.07443516974726272</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03536431162103781</v>
       </c>
       <c r="O17">
-        <v>0.2885895460926733</v>
+        <v>1.149153980846023</v>
       </c>
       <c r="P17">
-        <v>0.8462595620122606</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.394464526761212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2884481108658008</v>
+      </c>
+      <c r="R17">
+        <v>0.8430553187247334</v>
+      </c>
+      <c r="S17">
+        <v>1.302971770994588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.046162376691399</v>
+        <v>1.001177907778128</v>
       </c>
       <c r="C18">
-        <v>0.1767354258600591</v>
+        <v>0.1965296919222226</v>
       </c>
       <c r="D18">
-        <v>0.3698169454836489</v>
+        <v>0.3704201196680543</v>
       </c>
       <c r="E18">
-        <v>0.09120736562227094</v>
+        <v>0.09166279031366997</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.391234440878911</v>
+        <v>0.3532625518144386</v>
       </c>
       <c r="H18">
-        <v>0.07336714547196976</v>
+        <v>0.07322857158606411</v>
       </c>
       <c r="I18">
-        <v>0.00147015026146935</v>
+        <v>0.001711106500557058</v>
       </c>
       <c r="J18">
-        <v>0.3382152625603823</v>
+        <v>0.3439739025922179</v>
       </c>
       <c r="K18">
-        <v>0.2960851212461044</v>
+        <v>0.268255180332531</v>
       </c>
       <c r="L18">
-        <v>0.03416480387154119</v>
+        <v>0.1292268812372726</v>
       </c>
       <c r="M18">
-        <v>1.14137291052262</v>
+        <v>0.07874464474963006</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.03462246645409306</v>
       </c>
       <c r="O18">
-        <v>0.3295979743994906</v>
+        <v>1.140986410911239</v>
       </c>
       <c r="P18">
-        <v>0.8434784020534671</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.484997307357688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3297339280909739</v>
+      </c>
+      <c r="R18">
+        <v>0.8366884440019717</v>
+      </c>
+      <c r="S18">
+        <v>1.389378436889771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.047481423340685</v>
+        <v>0.9987011876994245</v>
       </c>
       <c r="C19">
-        <v>0.1853289086470937</v>
+        <v>0.2083589557032042</v>
       </c>
       <c r="D19">
-        <v>0.4383172319920163</v>
+        <v>0.4389194757435604</v>
       </c>
       <c r="E19">
-        <v>0.1288976651660718</v>
+        <v>0.1293552501046662</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4289028694145145</v>
+        <v>0.3859992223572632</v>
       </c>
       <c r="H19">
-        <v>0.0278005979960767</v>
+        <v>0.02768120990663903</v>
       </c>
       <c r="I19">
-        <v>0.001573954120227761</v>
+        <v>0.001852531886632924</v>
       </c>
       <c r="J19">
-        <v>0.3577408161787829</v>
+        <v>0.363542097029061</v>
       </c>
       <c r="K19">
-        <v>0.315006418355388</v>
+        <v>0.2841234543751554</v>
       </c>
       <c r="L19">
-        <v>0.04691329492738738</v>
+        <v>0.1354199494742119</v>
       </c>
       <c r="M19">
-        <v>1.155762904470436</v>
+        <v>0.08449285963826014</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.04737320498519004</v>
       </c>
       <c r="O19">
-        <v>0.3935688184029473</v>
+        <v>1.155771089011864</v>
       </c>
       <c r="P19">
-        <v>0.838392398684217</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.605736914637646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.393813056196322</v>
+      </c>
+      <c r="R19">
+        <v>0.8282491326626591</v>
+      </c>
+      <c r="S19">
+        <v>1.49927875515499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.104898663506987</v>
+        <v>1.044695382486395</v>
       </c>
       <c r="C20">
-        <v>0.2075077820868216</v>
+        <v>0.2369005010282024</v>
       </c>
       <c r="D20">
-        <v>0.5696070840498351</v>
+        <v>0.5701303108712352</v>
       </c>
       <c r="E20">
-        <v>0.2080335220442748</v>
+        <v>0.2084214089188166</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4966929073572857</v>
+        <v>0.4540853891859626</v>
       </c>
       <c r="H20">
-        <v>0.0006751878330599759</v>
+        <v>0.0006280289672688788</v>
       </c>
       <c r="I20">
-        <v>0.001604949324381266</v>
+        <v>0.001971533269999881</v>
       </c>
       <c r="J20">
-        <v>0.390173503732882</v>
+        <v>0.3818774191724543</v>
       </c>
       <c r="K20">
-        <v>0.3458487538261714</v>
+        <v>0.3077979138886313</v>
       </c>
       <c r="L20">
-        <v>0.09534951877139264</v>
+        <v>0.1428668036863066</v>
       </c>
       <c r="M20">
-        <v>1.237488204173872</v>
+        <v>0.09547644311578551</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.09571852968154815</v>
       </c>
       <c r="O20">
-        <v>0.5201628029271035</v>
+        <v>1.235061408682128</v>
       </c>
       <c r="P20">
-        <v>0.8242492300081725</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.817493775170419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5199118935345552</v>
+      </c>
+      <c r="R20">
+        <v>0.8099850147064576</v>
+      </c>
+      <c r="S20">
+        <v>1.679764282857462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.24512250126088</v>
+        <v>1.164335384419104</v>
       </c>
       <c r="C21">
-        <v>0.2333765295194894</v>
+        <v>0.2629339982675845</v>
       </c>
       <c r="D21">
-        <v>0.6348700969934953</v>
+        <v>0.6355178935541517</v>
       </c>
       <c r="E21">
-        <v>0.2347341186169061</v>
+        <v>0.2351629727476379</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5263652415146254</v>
+        <v>0.5447551390263925</v>
       </c>
       <c r="H21">
-        <v>4.497245260370875E-05</v>
+        <v>4.789192698972933E-05</v>
       </c>
       <c r="I21">
-        <v>0.001861862670019754</v>
+        <v>0.002294595715570225</v>
       </c>
       <c r="J21">
-        <v>0.3995299051563137</v>
+        <v>0.313868212229778</v>
       </c>
       <c r="K21">
-        <v>0.3518588596115855</v>
+        <v>0.3028013919970931</v>
       </c>
       <c r="L21">
-        <v>0.1098512943607801</v>
+        <v>0.1363039227045295</v>
       </c>
       <c r="M21">
-        <v>1.394736190716173</v>
+        <v>0.1003694195818419</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1101281268401593</v>
       </c>
       <c r="O21">
-        <v>0.5928854975867779</v>
+        <v>1.374657609986798</v>
       </c>
       <c r="P21">
-        <v>0.7901490157548654</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.900307375762821</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5885863674098673</v>
+      </c>
+      <c r="R21">
+        <v>0.7799737557536854</v>
+      </c>
+      <c r="S21">
+        <v>1.692035209966036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.338418378489024</v>
+        <v>1.243608007838986</v>
       </c>
       <c r="C22">
-        <v>0.2482685621622807</v>
+        <v>0.2770850385174697</v>
       </c>
       <c r="D22">
-        <v>0.6718897909709085</v>
+        <v>0.6726806083799488</v>
       </c>
       <c r="E22">
-        <v>0.2481702478148051</v>
+        <v>0.2486721951607365</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5446057391661583</v>
+        <v>0.6119492958146111</v>
       </c>
       <c r="H22">
-        <v>1.18862596998337E-05</v>
+        <v>6.017852321793526E-06</v>
       </c>
       <c r="I22">
-        <v>0.00191881997712251</v>
+        <v>0.002279301583941518</v>
       </c>
       <c r="J22">
-        <v>0.4051295903315832</v>
+        <v>0.2742730759037428</v>
       </c>
       <c r="K22">
-        <v>0.3556772165511255</v>
+        <v>0.2989985260628671</v>
       </c>
       <c r="L22">
-        <v>0.1163452534591727</v>
+        <v>0.1320078147077979</v>
       </c>
       <c r="M22">
-        <v>1.495857281521239</v>
+        <v>0.1036010077831335</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1165911856063033</v>
       </c>
       <c r="O22">
-        <v>0.6349956647946371</v>
+        <v>1.462836484834099</v>
       </c>
       <c r="P22">
-        <v>0.7685352660604829</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.950901348243121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6277094850102216</v>
+      </c>
+      <c r="R22">
+        <v>0.7616002985354804</v>
+      </c>
+      <c r="S22">
+        <v>1.693132540289582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.29111430439869</v>
+        <v>1.204629088128371</v>
       </c>
       <c r="C23">
-        <v>0.2389179921386813</v>
+        <v>0.2688101200017314</v>
       </c>
       <c r="D23">
-        <v>0.6521295135668197</v>
+        <v>0.6527857182198318</v>
       </c>
       <c r="E23">
-        <v>0.2410119739077174</v>
+        <v>0.2414354140023178</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5361874679756937</v>
+        <v>0.5689944868480836</v>
       </c>
       <c r="H23">
-        <v>3.64891039605908E-06</v>
+        <v>5.946484765040339E-06</v>
       </c>
       <c r="I23">
-        <v>0.001573192001274926</v>
+        <v>0.001916868713118802</v>
       </c>
       <c r="J23">
-        <v>0.4028072994902061</v>
+        <v>0.3016558253302932</v>
       </c>
       <c r="K23">
-        <v>0.3547190317055389</v>
+        <v>0.3027941230017532</v>
       </c>
       <c r="L23">
-        <v>0.1128945628101121</v>
+        <v>0.1348660718294834</v>
       </c>
       <c r="M23">
-        <v>1.441871408955421</v>
+        <v>0.1026072126785955</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1131327355379881</v>
       </c>
       <c r="O23">
-        <v>0.6125110191215768</v>
+        <v>1.417696774494999</v>
       </c>
       <c r="P23">
-        <v>0.7801018198366441</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.928086253751871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6072693734523966</v>
+      </c>
+      <c r="R23">
+        <v>0.7710071215238621</v>
+      </c>
+      <c r="S23">
+        <v>1.70242137888593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.107642714099995</v>
+        <v>1.047075346025565</v>
       </c>
       <c r="C24">
-        <v>0.2060984871648799</v>
+        <v>0.2356099081424645</v>
       </c>
       <c r="D24">
-        <v>0.5777586837530464</v>
+        <v>0.5782777920620106</v>
       </c>
       <c r="E24">
-        <v>0.2139509024717086</v>
+        <v>0.2143367842644182</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5030785770263861</v>
+        <v>0.4594967911623229</v>
       </c>
       <c r="H24">
-        <v>0.0005168613770387687</v>
+        <v>0.0004716059427614105</v>
       </c>
       <c r="I24">
-        <v>0.001117459719854885</v>
+        <v>0.001386016122683742</v>
       </c>
       <c r="J24">
-        <v>0.3934759463052018</v>
+        <v>0.3855810254645746</v>
       </c>
       <c r="K24">
-        <v>0.3498175091352351</v>
+        <v>0.3112959440571217</v>
       </c>
       <c r="L24">
-        <v>0.09982822308082007</v>
+        <v>0.1442301107948296</v>
       </c>
       <c r="M24">
-        <v>1.237636906742267</v>
+        <v>0.09673926289371693</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.100196693332947</v>
       </c>
       <c r="O24">
-        <v>0.5275526374169672</v>
+        <v>1.235351766653537</v>
       </c>
       <c r="P24">
-        <v>0.8250100581855762</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.837943935894941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5273334939793415</v>
+      </c>
+      <c r="R24">
+        <v>0.8099770562723858</v>
+      </c>
+      <c r="S24">
+        <v>1.69897846578445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.909160532316605</v>
+        <v>0.865949806162206</v>
       </c>
       <c r="C25">
-        <v>0.1712573502462362</v>
+        <v>0.1917702346703862</v>
       </c>
       <c r="D25">
-        <v>0.4984708996338156</v>
+        <v>0.4994046322837846</v>
       </c>
       <c r="E25">
-        <v>0.1848791309972704</v>
+        <v>0.1855982679048402</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4693284342535549</v>
+        <v>0.4270414569943597</v>
       </c>
       <c r="H25">
-        <v>0.002137669939136555</v>
+        <v>0.001952618801626338</v>
       </c>
       <c r="I25">
-        <v>0.001400140347247891</v>
+        <v>0.001422335010913933</v>
       </c>
       <c r="J25">
-        <v>0.3846101531361086</v>
+        <v>0.3853127504616225</v>
       </c>
       <c r="K25">
-        <v>0.3456047944465261</v>
+        <v>0.3121319023507496</v>
       </c>
       <c r="L25">
-        <v>0.08576198079789776</v>
+        <v>0.1517996640337316</v>
       </c>
       <c r="M25">
-        <v>1.017599408143184</v>
+        <v>0.08851018661417065</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.08646569123529702</v>
       </c>
       <c r="O25">
-        <v>0.4362314820107258</v>
+        <v>1.017643772701319</v>
       </c>
       <c r="P25">
-        <v>0.8759227138259389</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.74735756021775</v>
+        <v>0.4365069030865385</v>
+      </c>
+      <c r="R25">
+        <v>0.8560878410938386</v>
+      </c>
+      <c r="S25">
+        <v>1.63444662033703</v>
       </c>
     </row>
   </sheetData>
